--- a/TablaPlanificacion.xlsx
+++ b/TablaPlanificacion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Inycom PFC\Memoria\Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AB97A7-2171-4C4A-8BAE-9352C51D8815}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC502E2B-5439-4C3F-AE16-B16C9658BCD4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{4F1D0CFC-72F0-4577-B819-A3482B7AFC7B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4F1D0CFC-72F0-4577-B819-A3482B7AFC7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Horas" sheetId="4" r:id="rId1"/>
@@ -460,92 +460,8 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="5">
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
@@ -564,7 +480,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
+        <color rgb="FF92D050"/>
       </font>
       <fill>
         <patternFill>
@@ -588,107 +504,6 @@
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1000,13 +815,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F5C1779-7FEF-4DDC-B614-83266EAFA327}">
-  <dimension ref="A1:GQ120"/>
+  <dimension ref="A1:GQ121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="CE3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="CJ10" sqref="CJ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1017,648 +832,1417 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:199" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B1">
-        <f>SUM(B2:B100)</f>
-        <v>160</v>
-      </c>
-      <c r="C1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" s="1">
-        <v>43473</v>
-      </c>
-      <c r="E1" s="1">
-        <v>43474</v>
-      </c>
-      <c r="F1" s="1">
-        <v>43475</v>
-      </c>
-      <c r="G1" s="1">
-        <v>43476</v>
-      </c>
-      <c r="H1" s="1">
-        <v>43477</v>
-      </c>
-      <c r="I1" s="1">
-        <v>43478</v>
-      </c>
-      <c r="J1" s="1">
-        <v>43479</v>
-      </c>
-      <c r="K1" s="1">
-        <v>43480</v>
-      </c>
-      <c r="L1" s="1">
-        <v>43481</v>
-      </c>
-      <c r="M1" s="1">
-        <v>43482</v>
-      </c>
-      <c r="N1" s="1">
-        <v>43483</v>
-      </c>
-      <c r="O1" s="1">
-        <v>43484</v>
-      </c>
-      <c r="P1" s="1">
-        <v>43485</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>43486</v>
-      </c>
-      <c r="R1" s="1">
-        <v>43487</v>
-      </c>
-      <c r="S1" s="1">
-        <v>43488</v>
-      </c>
-      <c r="T1" s="1">
-        <v>43489</v>
-      </c>
-      <c r="U1" s="1">
-        <v>43490</v>
-      </c>
-      <c r="V1" s="1">
-        <v>43491</v>
-      </c>
-      <c r="W1" s="1">
-        <v>43492</v>
-      </c>
-      <c r="X1" s="1">
-        <v>43493</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>43494</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>43495</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>43496</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>43497</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>43498</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>43499</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>43500</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>43501</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>43502</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>43503</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>43504</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>43505</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>43506</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>43507</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>43508</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>43509</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>43510</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>43511</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>43512</v>
-      </c>
-      <c r="AR1" s="1">
-        <v>43513</v>
-      </c>
-      <c r="AS1" s="1">
-        <v>43514</v>
-      </c>
-      <c r="AT1" s="1">
-        <v>43515</v>
-      </c>
-      <c r="AU1" s="1">
-        <v>43516</v>
-      </c>
-      <c r="AV1" s="1">
-        <v>43517</v>
-      </c>
-      <c r="AW1" s="1">
-        <v>43518</v>
-      </c>
-      <c r="AX1" s="1">
-        <v>43519</v>
-      </c>
-      <c r="AY1" s="1">
-        <v>43520</v>
-      </c>
-      <c r="AZ1" s="1">
-        <v>43521</v>
-      </c>
-      <c r="BA1" s="1">
-        <v>43522</v>
-      </c>
-      <c r="BB1" s="1">
-        <v>43523</v>
-      </c>
-      <c r="BC1" s="1">
-        <v>43524</v>
-      </c>
-      <c r="BD1" s="1">
-        <v>43525</v>
-      </c>
-      <c r="BE1" s="1">
-        <v>43526</v>
-      </c>
-      <c r="BF1" s="1">
-        <v>43527</v>
-      </c>
-      <c r="BG1" s="1">
-        <v>43528</v>
-      </c>
-      <c r="BH1" s="1">
-        <v>43529</v>
-      </c>
-      <c r="BI1" s="1">
-        <v>43530</v>
-      </c>
-      <c r="BJ1" s="1">
-        <v>43531</v>
-      </c>
-      <c r="BK1" s="1">
-        <v>43532</v>
-      </c>
-      <c r="BL1" s="1">
-        <v>43533</v>
-      </c>
-      <c r="BM1" s="1">
-        <v>43534</v>
-      </c>
-      <c r="BN1" s="1">
-        <v>43535</v>
-      </c>
-      <c r="BO1" s="1">
-        <v>43536</v>
-      </c>
-      <c r="BP1" s="1">
-        <v>43537</v>
-      </c>
-      <c r="BQ1" s="1">
-        <v>43538</v>
-      </c>
-      <c r="BR1" s="1">
-        <v>43539</v>
-      </c>
-      <c r="BS1" s="1">
-        <v>43540</v>
-      </c>
-      <c r="BT1" s="1">
-        <v>43541</v>
-      </c>
-      <c r="BU1" s="1">
-        <v>43542</v>
-      </c>
-      <c r="BV1" s="1">
-        <v>43543</v>
-      </c>
-      <c r="BW1" s="1">
-        <v>43544</v>
-      </c>
-      <c r="BX1" s="1">
-        <v>43545</v>
-      </c>
-      <c r="BY1" s="1">
-        <v>43546</v>
-      </c>
-      <c r="BZ1" s="1">
-        <v>43547</v>
-      </c>
-      <c r="CA1" s="1">
-        <v>43548</v>
-      </c>
-      <c r="CB1" s="1">
-        <v>43549</v>
-      </c>
-      <c r="CC1" s="1">
-        <v>43550</v>
-      </c>
-      <c r="CD1" s="1">
-        <v>43551</v>
-      </c>
-      <c r="CE1" s="1">
-        <v>43552</v>
-      </c>
-      <c r="CF1" s="1">
-        <v>43553</v>
-      </c>
-      <c r="CG1" s="1">
-        <v>43554</v>
-      </c>
-      <c r="CH1" s="1">
-        <v>43555</v>
-      </c>
-      <c r="CI1" s="1">
-        <v>43556</v>
-      </c>
-      <c r="CJ1" s="1">
-        <v>43557</v>
-      </c>
-      <c r="CK1" s="1">
-        <v>43558</v>
-      </c>
-      <c r="CL1" s="1">
-        <v>43559</v>
-      </c>
-      <c r="CM1" s="1">
-        <v>43560</v>
-      </c>
-      <c r="CN1" s="1">
-        <v>43561</v>
-      </c>
-      <c r="CO1" s="1">
-        <v>43562</v>
-      </c>
-      <c r="CP1" s="1">
-        <v>43563</v>
-      </c>
-      <c r="CQ1" s="1">
-        <v>43564</v>
-      </c>
-      <c r="CR1" s="1">
-        <v>43565</v>
-      </c>
-      <c r="CS1" s="1">
-        <v>43566</v>
-      </c>
-      <c r="CT1" s="1">
-        <v>43567</v>
-      </c>
-      <c r="CU1" s="1">
-        <v>43568</v>
-      </c>
-      <c r="CV1" s="1">
-        <v>43569</v>
-      </c>
-      <c r="CW1" s="1">
-        <v>43570</v>
-      </c>
-      <c r="CX1" s="1">
-        <v>43571</v>
-      </c>
-      <c r="CY1" s="1">
-        <v>43572</v>
-      </c>
-      <c r="CZ1" s="1">
-        <v>43573</v>
-      </c>
-      <c r="DA1" s="1">
-        <v>43574</v>
-      </c>
-      <c r="DB1" s="1">
-        <v>43575</v>
-      </c>
-      <c r="DC1" s="1">
-        <v>43576</v>
-      </c>
-      <c r="DD1" s="1">
-        <v>43577</v>
-      </c>
-      <c r="DE1" s="1">
-        <v>43578</v>
-      </c>
-      <c r="DF1" s="1">
-        <v>43579</v>
-      </c>
-      <c r="DG1" s="1">
-        <v>43580</v>
-      </c>
-      <c r="DH1" s="1">
-        <v>43581</v>
-      </c>
-      <c r="DI1" s="1">
-        <v>43582</v>
-      </c>
-      <c r="DJ1" s="1">
-        <v>43583</v>
-      </c>
-      <c r="DK1" s="1">
-        <v>43584</v>
-      </c>
-      <c r="DL1" s="1">
-        <v>43585</v>
-      </c>
-      <c r="DM1" s="1">
-        <v>43586</v>
-      </c>
-      <c r="DN1" s="1">
-        <v>43587</v>
-      </c>
-      <c r="DO1" s="1">
-        <v>43588</v>
-      </c>
-      <c r="DP1" s="1">
-        <v>43589</v>
-      </c>
-      <c r="DQ1" s="1">
-        <v>43590</v>
-      </c>
-      <c r="DR1" s="1">
-        <v>43591</v>
-      </c>
-      <c r="DS1" s="1">
-        <v>43592</v>
-      </c>
-      <c r="DT1" s="1">
-        <v>43593</v>
-      </c>
-      <c r="DU1" s="1">
-        <v>43594</v>
-      </c>
-      <c r="DV1" s="1">
-        <v>43595</v>
-      </c>
-      <c r="DW1" s="1">
-        <v>43596</v>
-      </c>
-      <c r="DX1" s="1">
-        <v>43597</v>
-      </c>
-      <c r="DY1" s="1">
-        <v>43598</v>
-      </c>
-      <c r="DZ1" s="1">
-        <v>43599</v>
-      </c>
-      <c r="EA1" s="1">
-        <v>43600</v>
-      </c>
-      <c r="EB1" s="1">
-        <v>43601</v>
-      </c>
-      <c r="EC1" s="1">
-        <v>43602</v>
-      </c>
-      <c r="ED1" s="1">
-        <v>43603</v>
-      </c>
-      <c r="EE1" s="1">
-        <v>43604</v>
-      </c>
-      <c r="EF1" s="1">
-        <v>43605</v>
-      </c>
-      <c r="EG1" s="1">
-        <v>43606</v>
-      </c>
-      <c r="EH1" s="1">
-        <v>43607</v>
-      </c>
-      <c r="EI1" s="1">
-        <v>43608</v>
-      </c>
-      <c r="EJ1" s="1">
-        <v>43609</v>
-      </c>
-      <c r="EK1" s="1">
-        <v>43610</v>
-      </c>
-      <c r="EL1" s="1">
-        <v>43611</v>
-      </c>
-      <c r="EM1" s="1">
-        <v>43612</v>
-      </c>
-      <c r="EN1" s="1">
-        <v>43613</v>
-      </c>
-      <c r="EO1" s="1">
-        <v>43614</v>
-      </c>
-      <c r="EP1" s="1">
-        <v>43615</v>
-      </c>
-      <c r="EQ1" s="1">
-        <v>43616</v>
-      </c>
-      <c r="ER1" s="1">
-        <v>43617</v>
-      </c>
-      <c r="ES1" s="1">
-        <v>43618</v>
-      </c>
-      <c r="ET1" s="1">
-        <v>43619</v>
-      </c>
-      <c r="EU1" s="1">
-        <v>43620</v>
-      </c>
-      <c r="EV1" s="1">
-        <v>43621</v>
-      </c>
-      <c r="EW1" s="1">
-        <v>43622</v>
-      </c>
-      <c r="EX1" s="1">
-        <v>43623</v>
-      </c>
-      <c r="EY1" s="1">
-        <v>43624</v>
-      </c>
-      <c r="EZ1" s="1">
-        <v>43625</v>
-      </c>
-      <c r="FA1" s="1">
-        <v>43626</v>
-      </c>
-      <c r="FB1" s="1">
-        <v>43627</v>
-      </c>
-      <c r="FC1" s="1">
-        <v>43628</v>
-      </c>
-      <c r="FD1" s="1">
-        <v>43629</v>
-      </c>
-      <c r="FE1" s="1">
-        <v>43630</v>
-      </c>
-      <c r="FF1" s="1">
-        <v>43631</v>
-      </c>
-      <c r="FG1" s="1">
-        <v>43632</v>
-      </c>
-      <c r="FH1" s="1">
-        <v>43633</v>
-      </c>
-      <c r="FI1" s="1">
-        <v>43634</v>
-      </c>
-      <c r="FJ1" s="1">
-        <v>43635</v>
-      </c>
-      <c r="FK1" s="1">
-        <v>43636</v>
-      </c>
-      <c r="FL1" s="1">
-        <v>43637</v>
-      </c>
-      <c r="FM1" s="1">
-        <v>43638</v>
-      </c>
-      <c r="FN1" s="1">
-        <v>43639</v>
-      </c>
-      <c r="FO1" s="1">
-        <v>43640</v>
-      </c>
-      <c r="FP1" s="1">
-        <v>43641</v>
-      </c>
-      <c r="FQ1" s="1">
-        <v>43642</v>
-      </c>
-      <c r="FR1" s="1">
-        <v>43643</v>
-      </c>
-      <c r="FS1" s="1">
-        <v>43644</v>
-      </c>
-      <c r="FT1" s="1">
-        <v>43645</v>
-      </c>
-      <c r="FU1" s="1">
-        <v>43646</v>
-      </c>
-      <c r="FV1" s="1">
-        <v>43647</v>
-      </c>
-      <c r="FW1" s="1">
-        <v>43648</v>
-      </c>
-      <c r="FX1" s="1">
-        <v>43649</v>
-      </c>
-      <c r="FY1" s="1">
-        <v>43650</v>
-      </c>
-      <c r="FZ1" s="1">
-        <v>43651</v>
-      </c>
-      <c r="GA1" s="1">
-        <v>43652</v>
-      </c>
-      <c r="GB1" s="1">
-        <v>43653</v>
-      </c>
-      <c r="GC1" s="1">
-        <v>43654</v>
-      </c>
-      <c r="GD1" s="1">
-        <v>43655</v>
-      </c>
-      <c r="GE1" s="1">
-        <v>43656</v>
-      </c>
-      <c r="GF1" s="1">
-        <v>43657</v>
-      </c>
-      <c r="GG1" s="1">
-        <v>43658</v>
-      </c>
-      <c r="GH1" s="1">
-        <v>43659</v>
-      </c>
-      <c r="GI1" s="1">
-        <v>43660</v>
-      </c>
-      <c r="GJ1" s="1">
-        <v>43661</v>
-      </c>
-      <c r="GK1" s="1">
-        <v>43662</v>
-      </c>
-      <c r="GL1" s="1">
-        <v>43663</v>
-      </c>
-      <c r="GM1" s="1">
-        <v>43664</v>
-      </c>
-      <c r="GN1" s="1">
-        <v>43665</v>
-      </c>
-      <c r="GO1" s="1">
-        <v>43666</v>
-      </c>
-      <c r="GP1" s="1">
-        <v>43667</v>
-      </c>
-      <c r="GQ1" s="1">
-        <v>43668</v>
+      <c r="D1">
+        <f>SUM(D3:D48)</f>
+        <v>6</v>
+      </c>
+      <c r="E1">
+        <f t="shared" ref="E1:BP1" si="0">SUM(E3:E48)</f>
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="O1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="R1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="S1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="T1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="U1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AB1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AC1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AF1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AG1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AH1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AM1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AN1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AO1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AP1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AQ1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AR1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AS1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AU1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AV1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AW1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AX1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AY1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AZ1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="BA1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="BB1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BC1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BD1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="BE1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BF1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BG1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BH1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BI1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BJ1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BK1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BL1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BM1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BN1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="BO1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BP1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="BQ1">
+        <f t="shared" ref="BQ1:EB1" si="1">SUM(BQ3:BQ48)</f>
+        <v>5</v>
+      </c>
+      <c r="BR1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BS1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BT1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BU1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BV1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="BW1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BX1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BY1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="BZ1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CA1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CB1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="CC1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="CD1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CE1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CF1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CG1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CH1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CI1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="CJ1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CK1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CL1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CM1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CN1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CO1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CP1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CQ1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CR1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CS1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CT1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CU1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CV1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CW1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CX1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CY1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CZ1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DA1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DB1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DC1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DD1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DE1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DF1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DG1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DH1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DI1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DJ1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DK1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DL1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DM1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DN1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DO1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DP1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DQ1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DR1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DS1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DT1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DU1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DV1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DW1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DX1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DY1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="DZ1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="EA1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="EB1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="EC1">
+        <f t="shared" ref="EC1:GN1" si="2">SUM(EC3:EC48)</f>
+        <v>0</v>
+      </c>
+      <c r="ED1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EE1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EF1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EG1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EH1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EI1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EJ1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EK1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EL1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EM1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EN1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EO1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EP1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EQ1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="ER1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="ES1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="ET1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EU1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EV1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EW1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EX1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EY1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="EZ1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FA1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FB1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FC1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FD1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FE1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FF1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FG1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FH1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FI1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FJ1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FK1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FL1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FM1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FN1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FO1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FP1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FQ1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FR1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FS1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FT1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FU1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FV1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FW1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FX1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FY1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="FZ1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GA1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GB1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GC1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GD1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GE1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GF1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GG1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GH1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GI1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GJ1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GK1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GL1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GM1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GN1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="GO1">
+        <f t="shared" ref="GO1:GQ1" si="3">SUM(GO3:GO48)</f>
+        <v>0</v>
+      </c>
+      <c r="GP1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="GQ1">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:199" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2">
+        <f>SUM(B3:B101)</f>
+        <v>172</v>
+      </c>
+      <c r="C2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="1">
+        <v>43473</v>
+      </c>
+      <c r="E2" s="1">
+        <v>43474</v>
+      </c>
+      <c r="F2" s="1">
+        <v>43475</v>
+      </c>
+      <c r="G2" s="1">
+        <v>43476</v>
+      </c>
+      <c r="H2" s="1">
+        <v>43477</v>
+      </c>
+      <c r="I2" s="1">
+        <v>43478</v>
+      </c>
+      <c r="J2" s="1">
+        <v>43479</v>
+      </c>
+      <c r="K2" s="1">
+        <v>43480</v>
+      </c>
+      <c r="L2" s="1">
+        <v>43481</v>
+      </c>
+      <c r="M2" s="1">
+        <v>43482</v>
+      </c>
+      <c r="N2" s="1">
+        <v>43483</v>
+      </c>
+      <c r="O2" s="1">
+        <v>43484</v>
+      </c>
+      <c r="P2" s="1">
+        <v>43485</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>43486</v>
+      </c>
+      <c r="R2" s="1">
+        <v>43487</v>
+      </c>
+      <c r="S2" s="1">
+        <v>43488</v>
+      </c>
+      <c r="T2" s="1">
+        <v>43489</v>
+      </c>
+      <c r="U2" s="1">
+        <v>43490</v>
+      </c>
+      <c r="V2" s="1">
+        <v>43491</v>
+      </c>
+      <c r="W2" s="1">
+        <v>43492</v>
+      </c>
+      <c r="X2" s="1">
+        <v>43493</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>43494</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>43495</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>43496</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>43497</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>43498</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>43499</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>43500</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>43501</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>43502</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>43503</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>43504</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>43505</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>43506</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>43507</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>43508</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>43509</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>43510</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>43511</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>43512</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>43513</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>43514</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>43515</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>43516</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>43517</v>
+      </c>
+      <c r="AW2" s="1">
+        <v>43518</v>
+      </c>
+      <c r="AX2" s="1">
+        <v>43519</v>
+      </c>
+      <c r="AY2" s="1">
+        <v>43520</v>
+      </c>
+      <c r="AZ2" s="1">
+        <v>43521</v>
+      </c>
+      <c r="BA2" s="1">
+        <v>43522</v>
+      </c>
+      <c r="BB2" s="1">
+        <v>43523</v>
+      </c>
+      <c r="BC2" s="1">
+        <v>43524</v>
+      </c>
+      <c r="BD2" s="1">
+        <v>43525</v>
+      </c>
+      <c r="BE2" s="1">
+        <v>43526</v>
+      </c>
+      <c r="BF2" s="1">
+        <v>43527</v>
+      </c>
+      <c r="BG2" s="1">
+        <v>43528</v>
+      </c>
+      <c r="BH2" s="1">
+        <v>43529</v>
+      </c>
+      <c r="BI2" s="1">
+        <v>43530</v>
+      </c>
+      <c r="BJ2" s="1">
+        <v>43531</v>
+      </c>
+      <c r="BK2" s="1">
+        <v>43532</v>
+      </c>
+      <c r="BL2" s="1">
+        <v>43533</v>
+      </c>
+      <c r="BM2" s="1">
+        <v>43534</v>
+      </c>
+      <c r="BN2" s="1">
+        <v>43535</v>
+      </c>
+      <c r="BO2" s="1">
+        <v>43536</v>
+      </c>
+      <c r="BP2" s="1">
+        <v>43537</v>
+      </c>
+      <c r="BQ2" s="1">
+        <v>43538</v>
+      </c>
+      <c r="BR2" s="1">
+        <v>43539</v>
+      </c>
+      <c r="BS2" s="1">
+        <v>43540</v>
+      </c>
+      <c r="BT2" s="1">
+        <v>43541</v>
+      </c>
+      <c r="BU2" s="1">
+        <v>43542</v>
+      </c>
+      <c r="BV2" s="1">
+        <v>43543</v>
+      </c>
+      <c r="BW2" s="1">
+        <v>43544</v>
+      </c>
+      <c r="BX2" s="1">
+        <v>43545</v>
+      </c>
+      <c r="BY2" s="1">
+        <v>43546</v>
+      </c>
+      <c r="BZ2" s="1">
+        <v>43547</v>
+      </c>
+      <c r="CA2" s="1">
+        <v>43548</v>
+      </c>
+      <c r="CB2" s="1">
+        <v>43549</v>
+      </c>
+      <c r="CC2" s="1">
+        <v>43550</v>
+      </c>
+      <c r="CD2" s="1">
+        <v>43551</v>
+      </c>
+      <c r="CE2" s="1">
+        <v>43552</v>
+      </c>
+      <c r="CF2" s="1">
+        <v>43553</v>
+      </c>
+      <c r="CG2" s="1">
+        <v>43554</v>
+      </c>
+      <c r="CH2" s="1">
+        <v>43555</v>
+      </c>
+      <c r="CI2" s="1">
+        <v>43556</v>
+      </c>
+      <c r="CJ2" s="1">
+        <v>43557</v>
+      </c>
+      <c r="CK2" s="1">
+        <v>43558</v>
+      </c>
+      <c r="CL2" s="1">
+        <v>43559</v>
+      </c>
+      <c r="CM2" s="1">
+        <v>43560</v>
+      </c>
+      <c r="CN2" s="1">
+        <v>43561</v>
+      </c>
+      <c r="CO2" s="1">
+        <v>43562</v>
+      </c>
+      <c r="CP2" s="1">
+        <v>43563</v>
+      </c>
+      <c r="CQ2" s="1">
+        <v>43564</v>
+      </c>
+      <c r="CR2" s="1">
+        <v>43565</v>
+      </c>
+      <c r="CS2" s="1">
+        <v>43566</v>
+      </c>
+      <c r="CT2" s="1">
+        <v>43567</v>
+      </c>
+      <c r="CU2" s="1">
+        <v>43568</v>
+      </c>
+      <c r="CV2" s="1">
+        <v>43569</v>
+      </c>
+      <c r="CW2" s="1">
+        <v>43570</v>
+      </c>
+      <c r="CX2" s="1">
+        <v>43571</v>
+      </c>
+      <c r="CY2" s="1">
+        <v>43572</v>
+      </c>
+      <c r="CZ2" s="1">
+        <v>43573</v>
+      </c>
+      <c r="DA2" s="1">
+        <v>43574</v>
+      </c>
+      <c r="DB2" s="1">
+        <v>43575</v>
+      </c>
+      <c r="DC2" s="1">
+        <v>43576</v>
+      </c>
+      <c r="DD2" s="1">
+        <v>43577</v>
+      </c>
+      <c r="DE2" s="1">
+        <v>43578</v>
+      </c>
+      <c r="DF2" s="1">
+        <v>43579</v>
+      </c>
+      <c r="DG2" s="1">
+        <v>43580</v>
+      </c>
+      <c r="DH2" s="1">
+        <v>43581</v>
+      </c>
+      <c r="DI2" s="1">
+        <v>43582</v>
+      </c>
+      <c r="DJ2" s="1">
+        <v>43583</v>
+      </c>
+      <c r="DK2" s="1">
+        <v>43584</v>
+      </c>
+      <c r="DL2" s="1">
+        <v>43585</v>
+      </c>
+      <c r="DM2" s="1">
+        <v>43586</v>
+      </c>
+      <c r="DN2" s="1">
+        <v>43587</v>
+      </c>
+      <c r="DO2" s="1">
+        <v>43588</v>
+      </c>
+      <c r="DP2" s="1">
+        <v>43589</v>
+      </c>
+      <c r="DQ2" s="1">
+        <v>43590</v>
+      </c>
+      <c r="DR2" s="1">
+        <v>43591</v>
+      </c>
+      <c r="DS2" s="1">
+        <v>43592</v>
+      </c>
+      <c r="DT2" s="1">
+        <v>43593</v>
+      </c>
+      <c r="DU2" s="1">
+        <v>43594</v>
+      </c>
+      <c r="DV2" s="1">
+        <v>43595</v>
+      </c>
+      <c r="DW2" s="1">
+        <v>43596</v>
+      </c>
+      <c r="DX2" s="1">
+        <v>43597</v>
+      </c>
+      <c r="DY2" s="1">
+        <v>43598</v>
+      </c>
+      <c r="DZ2" s="1">
+        <v>43599</v>
+      </c>
+      <c r="EA2" s="1">
+        <v>43600</v>
+      </c>
+      <c r="EB2" s="1">
+        <v>43601</v>
+      </c>
+      <c r="EC2" s="1">
+        <v>43602</v>
+      </c>
+      <c r="ED2" s="1">
+        <v>43603</v>
+      </c>
+      <c r="EE2" s="1">
+        <v>43604</v>
+      </c>
+      <c r="EF2" s="1">
+        <v>43605</v>
+      </c>
+      <c r="EG2" s="1">
+        <v>43606</v>
+      </c>
+      <c r="EH2" s="1">
+        <v>43607</v>
+      </c>
+      <c r="EI2" s="1">
+        <v>43608</v>
+      </c>
+      <c r="EJ2" s="1">
+        <v>43609</v>
+      </c>
+      <c r="EK2" s="1">
+        <v>43610</v>
+      </c>
+      <c r="EL2" s="1">
+        <v>43611</v>
+      </c>
+      <c r="EM2" s="1">
+        <v>43612</v>
+      </c>
+      <c r="EN2" s="1">
+        <v>43613</v>
+      </c>
+      <c r="EO2" s="1">
+        <v>43614</v>
+      </c>
+      <c r="EP2" s="1">
+        <v>43615</v>
+      </c>
+      <c r="EQ2" s="1">
+        <v>43616</v>
+      </c>
+      <c r="ER2" s="1">
+        <v>43617</v>
+      </c>
+      <c r="ES2" s="1">
+        <v>43618</v>
+      </c>
+      <c r="ET2" s="1">
+        <v>43619</v>
+      </c>
+      <c r="EU2" s="1">
+        <v>43620</v>
+      </c>
+      <c r="EV2" s="1">
+        <v>43621</v>
+      </c>
+      <c r="EW2" s="1">
+        <v>43622</v>
+      </c>
+      <c r="EX2" s="1">
+        <v>43623</v>
+      </c>
+      <c r="EY2" s="1">
+        <v>43624</v>
+      </c>
+      <c r="EZ2" s="1">
+        <v>43625</v>
+      </c>
+      <c r="FA2" s="1">
+        <v>43626</v>
+      </c>
+      <c r="FB2" s="1">
+        <v>43627</v>
+      </c>
+      <c r="FC2" s="1">
+        <v>43628</v>
+      </c>
+      <c r="FD2" s="1">
+        <v>43629</v>
+      </c>
+      <c r="FE2" s="1">
+        <v>43630</v>
+      </c>
+      <c r="FF2" s="1">
+        <v>43631</v>
+      </c>
+      <c r="FG2" s="1">
+        <v>43632</v>
+      </c>
+      <c r="FH2" s="1">
+        <v>43633</v>
+      </c>
+      <c r="FI2" s="1">
+        <v>43634</v>
+      </c>
+      <c r="FJ2" s="1">
+        <v>43635</v>
+      </c>
+      <c r="FK2" s="1">
+        <v>43636</v>
+      </c>
+      <c r="FL2" s="1">
+        <v>43637</v>
+      </c>
+      <c r="FM2" s="1">
+        <v>43638</v>
+      </c>
+      <c r="FN2" s="1">
+        <v>43639</v>
+      </c>
+      <c r="FO2" s="1">
+        <v>43640</v>
+      </c>
+      <c r="FP2" s="1">
+        <v>43641</v>
+      </c>
+      <c r="FQ2" s="1">
+        <v>43642</v>
+      </c>
+      <c r="FR2" s="1">
+        <v>43643</v>
+      </c>
+      <c r="FS2" s="1">
+        <v>43644</v>
+      </c>
+      <c r="FT2" s="1">
+        <v>43645</v>
+      </c>
+      <c r="FU2" s="1">
+        <v>43646</v>
+      </c>
+      <c r="FV2" s="1">
+        <v>43647</v>
+      </c>
+      <c r="FW2" s="1">
+        <v>43648</v>
+      </c>
+      <c r="FX2" s="1">
+        <v>43649</v>
+      </c>
+      <c r="FY2" s="1">
+        <v>43650</v>
+      </c>
+      <c r="FZ2" s="1">
+        <v>43651</v>
+      </c>
+      <c r="GA2" s="1">
+        <v>43652</v>
+      </c>
+      <c r="GB2" s="1">
+        <v>43653</v>
+      </c>
+      <c r="GC2" s="1">
+        <v>43654</v>
+      </c>
+      <c r="GD2" s="1">
+        <v>43655</v>
+      </c>
+      <c r="GE2" s="1">
+        <v>43656</v>
+      </c>
+      <c r="GF2" s="1">
+        <v>43657</v>
+      </c>
+      <c r="GG2" s="1">
+        <v>43658</v>
+      </c>
+      <c r="GH2" s="1">
+        <v>43659</v>
+      </c>
+      <c r="GI2" s="1">
+        <v>43660</v>
+      </c>
+      <c r="GJ2" s="1">
+        <v>43661</v>
+      </c>
+      <c r="GK2" s="1">
+        <v>43662</v>
+      </c>
+      <c r="GL2" s="1">
+        <v>43663</v>
+      </c>
+      <c r="GM2" s="1">
+        <v>43664</v>
+      </c>
+      <c r="GN2" s="1">
+        <v>43665</v>
+      </c>
+      <c r="GO2" s="1">
+        <v>43666</v>
+      </c>
+      <c r="GP2" s="1">
+        <v>43667</v>
+      </c>
+      <c r="GQ2" s="1">
+        <v>43668</v>
+      </c>
+    </row>
+    <row r="3" spans="1:199" x14ac:dyDescent="0.3">
+      <c r="A3">
         <f>Tareas!A2</f>
         <v>0</v>
       </c>
-      <c r="B2">
-        <f>SUM(D2:KC2)</f>
-        <v>0</v>
-      </c>
-      <c r="C2" t="str">
+      <c r="B3">
+        <f>SUM(D3:KC3)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" t="str">
         <f>Tareas!B2</f>
         <v>Incio TFG</v>
-      </c>
-    </row>
-    <row r="3" spans="1:199" x14ac:dyDescent="0.3">
-      <c r="A3" t="str">
-        <f>Tareas!A3</f>
-        <v>0.1.1</v>
-      </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B66" si="0">SUM(D3:KC3)</f>
-        <v>1</v>
-      </c>
-      <c r="C3" t="str">
-        <f>Tareas!B3</f>
-        <v>Conectar uArm con PC</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:199" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
-        <f>Tareas!A4</f>
-        <v>0.2.1</v>
+        <f>Tareas!A3</f>
+        <v>0.1.1</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B4:B67" si="4">SUM(D4:KC4)</f>
         <v>1</v>
       </c>
       <c r="C4" t="str">
-        <f>Tareas!B4</f>
-        <v>Conectar OpenMV con PC</v>
+        <f>Tareas!B3</f>
+        <v>Conectar uArm con PC</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1666,259 +2250,271 @@
     </row>
     <row r="5" spans="1:199" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
-        <f>Tareas!A5</f>
-        <v>0.3.1</v>
+        <f>Tareas!A4</f>
+        <v>0.2.1</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="C5" t="str">
-        <f>Tareas!B5</f>
-        <v>Conectar LeapMotion con PC</v>
+        <f>Tareas!B4</f>
+        <v>Conectar OpenMV con PC</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:199" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
-        <f>Tareas!A6</f>
-        <v>0.12.1</v>
+        <f>Tareas!A5</f>
+        <v>0.3.1</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="C6" t="str">
-        <f>Tareas!B6</f>
-        <v>Conectar uArm con OpenMV</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
+        <f>Tareas!B5</f>
+        <v>Conectar LeapMotion con PC</v>
+      </c>
+      <c r="BY6">
+        <v>1</v>
+      </c>
+      <c r="CB6">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:199" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
-        <f>Tareas!A7</f>
-        <v>0.13.1</v>
+        <f>Tareas!A6</f>
+        <v>0.12.1</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="C7" t="str">
-        <f>Tareas!B7</f>
-        <v>Conectar uArm con LeapMotion</v>
+        <f>Tareas!B6</f>
+        <v>Conectar uArm con OpenMV</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:199" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
-        <f>Tareas!A8</f>
-        <v>0.1.2</v>
+        <f>Tareas!A7</f>
+        <v>0.13.1</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="C8" t="str">
-        <f>Tareas!B8</f>
-        <v>Adquirir conocimiento uArm</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="AA8">
-        <v>3</v>
+        <f>Tareas!B7</f>
+        <v>Conectar uArm con LeapMotion</v>
       </c>
     </row>
     <row r="9" spans="1:199" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
-        <f>Tareas!A9</f>
-        <v>0.2.2</v>
+        <f>Tareas!A8</f>
+        <v>0.1.2</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
-        <v>49</v>
+        <f t="shared" si="4"/>
+        <v>9</v>
       </c>
       <c r="C9" t="str">
-        <f>Tareas!B9</f>
-        <v>Adquirir conocimiento Python</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
-      </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
-      <c r="Q9">
-        <v>2</v>
-      </c>
-      <c r="S9">
-        <v>2</v>
-      </c>
-      <c r="AE9">
-        <v>2</v>
-      </c>
-      <c r="AF9">
-        <v>5</v>
-      </c>
-      <c r="AG9">
-        <v>2</v>
-      </c>
-      <c r="AL9">
+        <f>Tareas!B8</f>
+        <v>Adquirir conocimiento uArm</v>
+      </c>
+      <c r="D9">
         <v>3</v>
       </c>
-      <c r="AU9">
-        <v>4</v>
-      </c>
-      <c r="AV9">
+      <c r="AA9">
         <v>3</v>
       </c>
-      <c r="AW9">
-        <v>5</v>
-      </c>
-      <c r="AZ9">
-        <v>5</v>
-      </c>
-      <c r="BA9">
+      <c r="CI9">
         <v>3</v>
-      </c>
-      <c r="BD9">
-        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:199" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
-        <f>Tareas!A10</f>
-        <v>0.2.3</v>
+        <f>Tareas!A9</f>
+        <v>0.2.2</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
-        <v>62</v>
+        <f t="shared" si="4"/>
+        <v>49</v>
       </c>
       <c r="C10" t="str">
-        <f>Tareas!B10</f>
-        <v>Adquirir conocimiento OpenCV</v>
+        <f>Tareas!B9</f>
+        <v>Adquirir conocimiento Python</v>
       </c>
       <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="J10">
         <v>2</v>
       </c>
-      <c r="J10">
-        <v>4</v>
-      </c>
-      <c r="K10">
-        <v>5</v>
-      </c>
-      <c r="L10">
+      <c r="Q10">
         <v>2</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>4</v>
-      </c>
-      <c r="Q10">
-        <v>3</v>
-      </c>
-      <c r="R10">
-        <v>3</v>
       </c>
       <c r="S10">
         <v>2</v>
       </c>
-      <c r="T10">
+      <c r="AE10">
+        <v>2</v>
+      </c>
+      <c r="AF10">
+        <v>5</v>
+      </c>
+      <c r="AG10">
+        <v>2</v>
+      </c>
+      <c r="AL10">
         <v>3</v>
       </c>
-      <c r="AB10">
+      <c r="AU10">
+        <v>4</v>
+      </c>
+      <c r="AV10">
         <v>3</v>
       </c>
-      <c r="AG10">
+      <c r="AW10">
+        <v>5</v>
+      </c>
+      <c r="AZ10">
+        <v>5</v>
+      </c>
+      <c r="BA10">
         <v>3</v>
       </c>
-      <c r="AL10">
-        <v>2</v>
-      </c>
-      <c r="AM10">
-        <v>5</v>
-      </c>
-      <c r="AN10">
-        <v>5</v>
-      </c>
-      <c r="AO10">
-        <v>5</v>
-      </c>
-      <c r="AP10">
-        <v>5</v>
-      </c>
-      <c r="AT10">
+      <c r="BD10">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:199" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
-        <f>Tareas!A11</f>
-        <v>0.2.4</v>
+        <f>Tareas!A10</f>
+        <v>0.2.3</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>62</v>
       </c>
       <c r="C11" t="str">
-        <f>Tareas!B11</f>
-        <v>Adquirir conocimiento OpenMV</v>
+        <f>Tareas!B10</f>
+        <v>Adquirir conocimiento OpenCV</v>
       </c>
       <c r="E11">
         <v>2</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>4</v>
+      </c>
+      <c r="Q11">
+        <v>3</v>
+      </c>
+      <c r="R11">
+        <v>3</v>
+      </c>
+      <c r="S11">
+        <v>2</v>
+      </c>
+      <c r="T11">
+        <v>3</v>
+      </c>
+      <c r="AB11">
+        <v>3</v>
+      </c>
+      <c r="AG11">
+        <v>3</v>
+      </c>
+      <c r="AL11">
+        <v>2</v>
+      </c>
+      <c r="AM11">
+        <v>5</v>
+      </c>
+      <c r="AN11">
+        <v>5</v>
+      </c>
+      <c r="AO11">
+        <v>5</v>
+      </c>
+      <c r="AP11">
+        <v>5</v>
+      </c>
+      <c r="AT11">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:199" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
-        <f>Tareas!A12</f>
-        <v>0.3.2</v>
+        <f>Tareas!A11</f>
+        <v>0.2.4</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="C12" t="str">
-        <f>Tareas!B12</f>
-        <v>Adquirir conocimiento LeapMotion</v>
+        <f>Tareas!B11</f>
+        <v>Adquirir conocimiento OpenMV</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:199" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
-        <f>Tareas!A13</f>
-        <v>1.2.1</v>
+        <f>Tareas!A12</f>
+        <v>0.3.2</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="C13" t="str">
-        <f>Tareas!B13</f>
-        <v>Desarrollar deteccion de un color</v>
-      </c>
-      <c r="L13">
-        <v>3</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
+        <f>Tareas!B12</f>
+        <v>Adquirir conocimiento LeapMotion</v>
+      </c>
+      <c r="CC13">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:199" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
-        <f>Tareas!A14</f>
-        <v>1.2.2</v>
+        <f>Tareas!A13</f>
+        <v>1.2.1</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="C14" t="str">
-        <f>Tareas!B14</f>
-        <v>Desarrollar deteccion de varios colores</v>
+        <f>Tareas!B13</f>
+        <v>Desarrollar deteccion de un color</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -1926,1535 +2522,1564 @@
     </row>
     <row r="15" spans="1:199" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
-        <f>Tareas!A15</f>
-        <v>1.2.3</v>
+        <f>Tareas!A14</f>
+        <v>1.2.2</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C15" t="str">
-        <f>Tareas!B15</f>
-        <v>Desarrollar ubicación centro de forma detectada</v>
-      </c>
-      <c r="N15">
+        <f>Tareas!B14</f>
+        <v>Desarrollar deteccion de varios colores</v>
+      </c>
+      <c r="M15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:199" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
+        <f>Tareas!A15</f>
+        <v>1.2.3</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C16" t="str">
+        <f>Tareas!B15</f>
+        <v>Desarrollar ubicación centro de forma detectada</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:87" x14ac:dyDescent="0.3">
+      <c r="A17" t="str">
         <f>Tareas!A16</f>
         <v>1.2.4</v>
       </c>
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C16" t="str">
+      <c r="B17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C17" t="str">
         <f>Tareas!B16</f>
         <v>Desarrollar deteccion de forma</v>
       </c>
-      <c r="N16">
+      <c r="N17">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A17" t="str">
+    <row r="18" spans="1:87" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
         <f>Tareas!A17</f>
         <v>1.2.5</v>
       </c>
-      <c r="B17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C17" t="str">
+      <c r="B18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C18" t="str">
         <f>Tareas!B17</f>
         <v>Desarrollar deteccion de varias formas</v>
       </c>
     </row>
-    <row r="18" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A18" t="str">
+    <row r="19" spans="1:87" x14ac:dyDescent="0.3">
+      <c r="A19" t="str">
         <f>Tareas!A18</f>
         <v>1.2.6</v>
       </c>
-      <c r="B18">
-        <f t="shared" si="0"/>
+      <c r="B19">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="C18" t="str">
+      <c r="C19" t="str">
         <f>Tareas!B18</f>
         <v>Desarrollar deteccion de forma y color</v>
       </c>
-      <c r="R18">
+      <c r="R19">
         <v>2</v>
       </c>
-      <c r="S18">
+      <c r="S19">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A19" t="str">
+    <row r="20" spans="1:87" x14ac:dyDescent="0.3">
+      <c r="A20" t="str">
         <f>Tareas!A19</f>
         <v>1.2.7</v>
       </c>
-      <c r="B19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C19" t="str">
+      <c r="B20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C20" t="str">
         <f>Tareas!B19</f>
         <v>Desarrollar deteccion de formas y  colores y su ubicación</v>
       </c>
     </row>
-    <row r="20" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A20" t="str">
+    <row r="21" spans="1:87" x14ac:dyDescent="0.3">
+      <c r="A21" t="str">
         <f>Tareas!A20</f>
         <v>1.1.0</v>
       </c>
-      <c r="B20">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C20" t="str">
+      <c r="B21">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="C21" t="str">
         <f>Tareas!B20</f>
         <v>Calibracion Brazo</v>
       </c>
-      <c r="AA20">
+      <c r="AA21">
         <v>3</v>
       </c>
-      <c r="AB20">
+      <c r="AB21">
         <v>2</v>
       </c>
-      <c r="AE20">
+      <c r="AE21">
         <v>3</v>
       </c>
-      <c r="AU20">
-        <v>1</v>
-      </c>
-      <c r="AV20">
+      <c r="AU21">
+        <v>1</v>
+      </c>
+      <c r="AV21">
         <v>2</v>
       </c>
-      <c r="BA20">
+      <c r="BA21">
         <v>2</v>
       </c>
-      <c r="BN20">
+      <c r="BN21">
         <v>3</v>
       </c>
+      <c r="CI21">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A21" t="str">
+    <row r="22" spans="1:87" x14ac:dyDescent="0.3">
+      <c r="A22" t="str">
         <f>Tareas!A21</f>
         <v>1.1.1</v>
       </c>
-      <c r="B21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C21" t="str">
+      <c r="B22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C22" t="str">
         <f>Tareas!B21</f>
         <v>Desarrollar movimiento de cabezal a una posicion 3D</v>
       </c>
     </row>
-    <row r="22" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A22" t="str">
+    <row r="23" spans="1:87" x14ac:dyDescent="0.3">
+      <c r="A23" t="str">
         <f>Tareas!A22</f>
         <v>1.1.2</v>
       </c>
-      <c r="B22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C22" t="str">
+      <c r="B23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C23" t="str">
         <f>Tareas!B22</f>
         <v>Desarrollar recogida y suelta de objeto</v>
       </c>
     </row>
-    <row r="23" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A23" t="str">
+    <row r="24" spans="1:87" x14ac:dyDescent="0.3">
+      <c r="A24" t="str">
         <f>Tareas!A23</f>
         <v>1.12.1</v>
       </c>
-      <c r="B23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C23" t="str">
+      <c r="B24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C24" t="str">
         <f>Tareas!B23</f>
         <v>Mover el brazo hasta localizar un objeto con la camara</v>
       </c>
     </row>
-    <row r="24" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A24" t="str">
+    <row r="25" spans="1:87" x14ac:dyDescent="0.3">
+      <c r="A25" t="str">
         <f>Tareas!A24</f>
         <v>1.12.2</v>
       </c>
-      <c r="B24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C24" t="str">
+      <c r="B25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C25" t="str">
         <f>Tareas!B24</f>
         <v>Mover el brazo hasta la posicion de un objeto</v>
       </c>
     </row>
-    <row r="25" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A25" t="str">
+    <row r="26" spans="1:87" x14ac:dyDescent="0.3">
+      <c r="A26" t="str">
         <f>Tareas!A25</f>
         <v>1.12.3</v>
       </c>
-      <c r="B25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C25" t="str">
+      <c r="B26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C26" t="str">
         <f>Tareas!B25</f>
         <v>Coger un objeto localizado</v>
       </c>
     </row>
-    <row r="26" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A26" t="str">
+    <row r="27" spans="1:87" x14ac:dyDescent="0.3">
+      <c r="A27" t="str">
         <f>Tareas!A26</f>
         <v>1.12.4</v>
       </c>
-      <c r="B26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C26" t="str">
+      <c r="B27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C27" t="str">
         <f>Tareas!B26</f>
         <v>Localizar un marcador mientras sujeta un objeto</v>
       </c>
     </row>
-    <row r="27" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A27" t="str">
+    <row r="28" spans="1:87" x14ac:dyDescent="0.3">
+      <c r="A28" t="str">
         <f>Tareas!A27</f>
         <v>1.12.5</v>
       </c>
-      <c r="B27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C27" t="str">
+      <c r="B28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C28" t="str">
         <f>Tareas!B27</f>
         <v>Mover el brazo hasta la posicion del marcador sujetando objeto</v>
       </c>
     </row>
-    <row r="28" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A28" t="str">
+    <row r="29" spans="1:87" x14ac:dyDescent="0.3">
+      <c r="A29" t="str">
         <f>Tareas!A28</f>
         <v>1.12.6</v>
       </c>
-      <c r="B28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C28" t="str">
+      <c r="B29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C29" t="str">
         <f>Tareas!B28</f>
         <v>Soltar el objeto en la posicion del marcador</v>
       </c>
     </row>
-    <row r="29" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A29" t="str">
+    <row r="30" spans="1:87" x14ac:dyDescent="0.3">
+      <c r="A30" t="str">
         <f>Tareas!A29</f>
         <v>1.12.7</v>
       </c>
-      <c r="B29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C29" t="str">
+      <c r="B30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C30" t="str">
         <f>Tareas!B29</f>
         <v>Realizar el proceso 1.12.1-6 con varios objetos y marcadores</v>
       </c>
     </row>
-    <row r="30" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A30" t="str">
+    <row r="31" spans="1:87" x14ac:dyDescent="0.3">
+      <c r="A31" t="str">
         <f>Tareas!A30</f>
         <v>1.3.1</v>
       </c>
-      <c r="B30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C30" t="str">
+      <c r="B31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C31" t="str">
         <f>Tareas!B30</f>
         <v>Detectar movimientos de la mano con leapmotion</v>
       </c>
     </row>
-    <row r="31" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A31" t="str">
+    <row r="32" spans="1:87" x14ac:dyDescent="0.3">
+      <c r="A32" t="str">
         <f>Tareas!A31</f>
         <v>1.3.2</v>
       </c>
-      <c r="B31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C31" t="str">
+      <c r="B32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C32" t="str">
         <f>Tareas!B31</f>
         <v>Identificar gestos con leapmotion</v>
       </c>
     </row>
-    <row r="32" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="A32" t="str">
+    <row r="33" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A33" t="str">
         <f>Tareas!A32</f>
         <v>1.3.3</v>
       </c>
-      <c r="B32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C32" t="str">
+      <c r="B33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C33" t="str">
         <f>Tareas!B32</f>
         <v>Identificar posicion de centro de la mano</v>
       </c>
     </row>
-    <row r="33" spans="1:74" x14ac:dyDescent="0.3">
-      <c r="A33" t="str">
+    <row r="34" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A34" t="str">
         <f>Tareas!A33</f>
         <v>1.3.4</v>
       </c>
-      <c r="B33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C33" t="str">
+      <c r="B34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C34" t="str">
         <f>Tareas!B33</f>
         <v>Seguir la posicion de la mano</v>
       </c>
     </row>
-    <row r="34" spans="1:74" x14ac:dyDescent="0.3">
-      <c r="A34" t="str">
+    <row r="35" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A35" t="str">
         <f>Tareas!A34</f>
         <v>1.3.5</v>
       </c>
-      <c r="B34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C34" t="str">
+      <c r="B35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C35" t="str">
         <f>Tareas!B34</f>
         <v>Seguir la posicion de varios puntos de la mano</v>
       </c>
     </row>
-    <row r="35" spans="1:74" x14ac:dyDescent="0.3">
-      <c r="A35" t="str">
+    <row r="36" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A36" t="str">
         <f>Tareas!A35</f>
         <v>1.3.6</v>
       </c>
-      <c r="B35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C35" t="str">
+      <c r="B36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C36" t="str">
         <f>Tareas!B35</f>
         <v>Generar diccionario de gestos</v>
       </c>
     </row>
-    <row r="36" spans="1:74" x14ac:dyDescent="0.3">
-      <c r="A36" t="str">
+    <row r="37" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A37" t="str">
         <f>Tareas!A36</f>
         <v>1.13.1</v>
       </c>
-      <c r="B36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C36" t="str">
+      <c r="B37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C37" t="str">
         <f>Tareas!B36</f>
         <v>Enviar movimientos de leapmotion a uArm</v>
       </c>
     </row>
-    <row r="37" spans="1:74" x14ac:dyDescent="0.3">
-      <c r="A37" t="str">
+    <row r="38" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A38" t="str">
         <f>Tareas!A37</f>
         <v>1.13.2</v>
       </c>
-      <c r="B37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C37" t="str">
+      <c r="B38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C38" t="str">
         <f>Tareas!B37</f>
         <v>Imitar movimientos mano con uArm</v>
       </c>
     </row>
-    <row r="38" spans="1:74" x14ac:dyDescent="0.3">
-      <c r="A38" t="str">
+    <row r="39" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A39" t="str">
         <f>Tareas!A38</f>
         <v>1.13.3</v>
       </c>
-      <c r="B38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C38" t="str">
+      <c r="B39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C39" t="str">
         <f>Tareas!B38</f>
         <v>Hacer que uArm responda a gestos mano</v>
       </c>
     </row>
-    <row r="39" spans="1:74" x14ac:dyDescent="0.3">
-      <c r="A39" t="str">
+    <row r="40" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A40" t="str">
         <f>Tareas!A39</f>
         <v>0.4.1</v>
       </c>
-      <c r="B39">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C39" t="str">
+      <c r="B40">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="C40" t="str">
         <f>Tareas!B39</f>
         <v>Adquirir conocimiento memoria y tramites proyecto</v>
       </c>
-      <c r="BN39">
+      <c r="BN40">
         <v>2</v>
       </c>
-      <c r="BQ39">
+      <c r="BQ40">
         <v>5</v>
       </c>
-      <c r="BV39">
+      <c r="BV40">
         <v>3</v>
       </c>
+      <c r="BY40">
+        <v>1</v>
+      </c>
     </row>
-    <row r="40" spans="1:74" x14ac:dyDescent="0.3">
-      <c r="A40" t="str">
+    <row r="41" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A41" t="str">
         <f>Tareas!A40</f>
         <v>1.4.1</v>
       </c>
-      <c r="B40">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C40" t="str">
+      <c r="B41">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C41" t="str">
         <f>Tareas!B40</f>
         <v>Primera redaccion memoria parcial</v>
       </c>
-      <c r="BN40">
+      <c r="BN41">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:74" x14ac:dyDescent="0.3">
-      <c r="A41" t="str">
+    <row r="42" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A42" t="str">
         <f>Tareas!A41</f>
         <v>1.4.2</v>
       </c>
-      <c r="B41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C41" t="str">
+      <c r="B42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C42" t="str">
         <f>Tareas!B41</f>
         <v>Primera redaccion memoria total</v>
       </c>
     </row>
-    <row r="42" spans="1:74" x14ac:dyDescent="0.3">
-      <c r="A42" t="str">
+    <row r="43" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A43" t="str">
         <f>Tareas!A42</f>
         <v>1.4.3</v>
       </c>
-      <c r="B42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C42" t="str">
+      <c r="B43">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C43" t="str">
         <f>Tareas!B42</f>
         <v>Correccion memoria total</v>
       </c>
     </row>
-    <row r="43" spans="1:74" x14ac:dyDescent="0.3">
-      <c r="A43" t="str">
+    <row r="44" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A44" t="str">
         <f>Tareas!A43</f>
         <v>2.4.1</v>
       </c>
-      <c r="B43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C43" t="str">
+      <c r="B44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C44" t="str">
         <f>Tareas!B43</f>
         <v>Redaccion memoria final</v>
       </c>
     </row>
-    <row r="44" spans="1:74" x14ac:dyDescent="0.3">
-      <c r="A44" t="str">
+    <row r="45" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A45" t="str">
         <f>Tareas!A44</f>
         <v>2.4.2</v>
       </c>
-      <c r="B44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C44" t="str">
+      <c r="B45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C45" t="str">
         <f>Tareas!B44</f>
         <v>Correccion memoria final</v>
       </c>
     </row>
-    <row r="45" spans="1:74" x14ac:dyDescent="0.3">
-      <c r="A45" t="str">
+    <row r="46" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A46" t="str">
         <f>Tareas!A45</f>
         <v>3.4.1</v>
       </c>
-      <c r="B45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C45" t="str">
+      <c r="B46">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C46" t="str">
         <f>Tareas!B45</f>
         <v>Impresión Memoria</v>
       </c>
     </row>
-    <row r="46" spans="1:74" x14ac:dyDescent="0.3">
-      <c r="A46" t="str">
+    <row r="47" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A47" t="str">
         <f>Tareas!A46</f>
         <v>3.4.2</v>
       </c>
-      <c r="B46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C46" t="str">
+      <c r="B47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C47" t="str">
         <f>Tareas!B46</f>
         <v>Entrega Memoria</v>
       </c>
     </row>
-    <row r="47" spans="1:74" x14ac:dyDescent="0.3">
-      <c r="A47">
+    <row r="48" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A48">
         <f>Tareas!A47</f>
         <v>0</v>
       </c>
-      <c r="B47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C47">
+      <c r="B48">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C48">
         <f>Tareas!B47</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:74" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <f>Tareas!A48</f>
-        <v>0</v>
-      </c>
-      <c r="B48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C48">
-        <f>Tareas!B48</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
-        <f>Tareas!A49</f>
+        <f>Tareas!A48</f>
         <v>0</v>
       </c>
       <c r="B49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C49">
-        <f>Tareas!B49</f>
+        <f>Tareas!B48</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
-        <f>Tareas!A50</f>
+        <f>Tareas!A49</f>
         <v>0</v>
       </c>
       <c r="B50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C50">
-        <f>Tareas!B50</f>
+        <f>Tareas!B49</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
-        <f>Tareas!A51</f>
+        <f>Tareas!A50</f>
         <v>0</v>
       </c>
       <c r="B51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C51">
-        <f>Tareas!B51</f>
+        <f>Tareas!B50</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
-        <f>Tareas!A52</f>
+        <f>Tareas!A51</f>
         <v>0</v>
       </c>
       <c r="B52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C52">
-        <f>Tareas!B52</f>
+        <f>Tareas!B51</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
-        <f>Tareas!A53</f>
+        <f>Tareas!A52</f>
         <v>0</v>
       </c>
       <c r="B53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C53">
-        <f>Tareas!B53</f>
+        <f>Tareas!B52</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
-        <f>Tareas!A54</f>
+        <f>Tareas!A53</f>
         <v>0</v>
       </c>
       <c r="B54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C54">
-        <f>Tareas!B54</f>
+        <f>Tareas!B53</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
-        <f>Tareas!A55</f>
+        <f>Tareas!A54</f>
         <v>0</v>
       </c>
       <c r="B55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C55">
-        <f>Tareas!B55</f>
+        <f>Tareas!B54</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
-        <f>Tareas!A56</f>
+        <f>Tareas!A55</f>
         <v>0</v>
       </c>
       <c r="B56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C56">
-        <f>Tareas!B56</f>
+        <f>Tareas!B55</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
-        <f>Tareas!A57</f>
+        <f>Tareas!A56</f>
         <v>0</v>
       </c>
       <c r="B57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C57">
-        <f>Tareas!B57</f>
+        <f>Tareas!B56</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
-        <f>Tareas!A58</f>
+        <f>Tareas!A57</f>
         <v>0</v>
       </c>
       <c r="B58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C58">
-        <f>Tareas!B58</f>
+        <f>Tareas!B57</f>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
-        <f>Tareas!A59</f>
+        <f>Tareas!A58</f>
         <v>0</v>
       </c>
       <c r="B59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C59">
-        <f>Tareas!B59</f>
+        <f>Tareas!B58</f>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
-        <f>Tareas!A60</f>
+        <f>Tareas!A59</f>
         <v>0</v>
       </c>
       <c r="B60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C60">
-        <f>Tareas!B60</f>
+        <f>Tareas!B59</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
-        <f>Tareas!A61</f>
+        <f>Tareas!A60</f>
         <v>0</v>
       </c>
       <c r="B61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C61">
-        <f>Tareas!B61</f>
+        <f>Tareas!B60</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
-        <f>Tareas!A62</f>
+        <f>Tareas!A61</f>
         <v>0</v>
       </c>
       <c r="B62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C62">
-        <f>Tareas!B62</f>
+        <f>Tareas!B61</f>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
-        <f>Tareas!A63</f>
+        <f>Tareas!A62</f>
         <v>0</v>
       </c>
       <c r="B63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C63">
-        <f>Tareas!B63</f>
+        <f>Tareas!B62</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
-        <f>Tareas!A64</f>
+        <f>Tareas!A63</f>
         <v>0</v>
       </c>
       <c r="B64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C64">
-        <f>Tareas!B64</f>
+        <f>Tareas!B63</f>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
-        <f>Tareas!A65</f>
+        <f>Tareas!A64</f>
         <v>0</v>
       </c>
       <c r="B65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C65">
-        <f>Tareas!B65</f>
+        <f>Tareas!B64</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
-        <f>Tareas!A66</f>
+        <f>Tareas!A65</f>
         <v>0</v>
       </c>
       <c r="B66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C66">
-        <f>Tareas!B66</f>
+        <f>Tareas!B65</f>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
-        <f>Tareas!A67</f>
+        <f>Tareas!A66</f>
         <v>0</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B120" si="1">SUM(D67:KC67)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C67">
-        <f>Tareas!B67</f>
+        <f>Tareas!B66</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
-        <f>Tareas!A68</f>
+        <f>Tareas!A67</f>
         <v>0</v>
       </c>
       <c r="B68">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B68:B121" si="5">SUM(D68:KC68)</f>
         <v>0</v>
       </c>
       <c r="C68">
-        <f>Tareas!B68</f>
+        <f>Tareas!B67</f>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
-        <f>Tareas!A69</f>
+        <f>Tareas!A68</f>
         <v>0</v>
       </c>
       <c r="B69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C69">
-        <f>Tareas!B69</f>
+        <f>Tareas!B68</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
-        <f>Tareas!A70</f>
+        <f>Tareas!A69</f>
         <v>0</v>
       </c>
       <c r="B70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C70">
-        <f>Tareas!B70</f>
+        <f>Tareas!B69</f>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
-        <f>Tareas!A71</f>
+        <f>Tareas!A70</f>
         <v>0</v>
       </c>
       <c r="B71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C71">
-        <f>Tareas!B71</f>
+        <f>Tareas!B70</f>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
-        <f>Tareas!A72</f>
+        <f>Tareas!A71</f>
         <v>0</v>
       </c>
       <c r="B72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C72">
-        <f>Tareas!B72</f>
+        <f>Tareas!B71</f>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
-        <f>Tareas!A73</f>
+        <f>Tareas!A72</f>
         <v>0</v>
       </c>
       <c r="B73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C73">
-        <f>Tareas!B73</f>
+        <f>Tareas!B72</f>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
-        <f>Tareas!A74</f>
+        <f>Tareas!A73</f>
         <v>0</v>
       </c>
       <c r="B74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C74">
-        <f>Tareas!B74</f>
+        <f>Tareas!B73</f>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
-        <f>Tareas!A75</f>
+        <f>Tareas!A74</f>
         <v>0</v>
       </c>
       <c r="B75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C75">
-        <f>Tareas!B75</f>
+        <f>Tareas!B74</f>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
-        <f>Tareas!A76</f>
+        <f>Tareas!A75</f>
         <v>0</v>
       </c>
       <c r="B76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C76">
-        <f>Tareas!B76</f>
+        <f>Tareas!B75</f>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
-        <f>Tareas!A77</f>
+        <f>Tareas!A76</f>
         <v>0</v>
       </c>
       <c r="B77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C77">
-        <f>Tareas!B77</f>
+        <f>Tareas!B76</f>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
-        <f>Tareas!A78</f>
+        <f>Tareas!A77</f>
         <v>0</v>
       </c>
       <c r="B78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C78">
-        <f>Tareas!B78</f>
+        <f>Tareas!B77</f>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
-        <f>Tareas!A79</f>
+        <f>Tareas!A78</f>
         <v>0</v>
       </c>
       <c r="B79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C79">
-        <f>Tareas!B79</f>
+        <f>Tareas!B78</f>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
-        <f>Tareas!A80</f>
+        <f>Tareas!A79</f>
         <v>0</v>
       </c>
       <c r="B80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C80">
-        <f>Tareas!B80</f>
+        <f>Tareas!B79</f>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
-        <f>Tareas!A81</f>
+        <f>Tareas!A80</f>
         <v>0</v>
       </c>
       <c r="B81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C81">
-        <f>Tareas!B81</f>
+        <f>Tareas!B80</f>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
-        <f>Tareas!A82</f>
+        <f>Tareas!A81</f>
         <v>0</v>
       </c>
       <c r="B82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C82">
-        <f>Tareas!B82</f>
+        <f>Tareas!B81</f>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
-        <f>Tareas!A83</f>
+        <f>Tareas!A82</f>
         <v>0</v>
       </c>
       <c r="B83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C83">
-        <f>Tareas!B83</f>
+        <f>Tareas!B82</f>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
-        <f>Tareas!A84</f>
+        <f>Tareas!A83</f>
         <v>0</v>
       </c>
       <c r="B84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C84">
-        <f>Tareas!B84</f>
+        <f>Tareas!B83</f>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
-        <f>Tareas!A85</f>
+        <f>Tareas!A84</f>
         <v>0</v>
       </c>
       <c r="B85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C85">
-        <f>Tareas!B85</f>
+        <f>Tareas!B84</f>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
-        <f>Tareas!A86</f>
+        <f>Tareas!A85</f>
         <v>0</v>
       </c>
       <c r="B86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C86">
-        <f>Tareas!B86</f>
+        <f>Tareas!B85</f>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
-        <f>Tareas!A87</f>
+        <f>Tareas!A86</f>
         <v>0</v>
       </c>
       <c r="B87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C87">
-        <f>Tareas!B87</f>
+        <f>Tareas!B86</f>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
-        <f>Tareas!A88</f>
+        <f>Tareas!A87</f>
         <v>0</v>
       </c>
       <c r="B88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C88">
-        <f>Tareas!B88</f>
+        <f>Tareas!B87</f>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
-        <f>Tareas!A89</f>
+        <f>Tareas!A88</f>
         <v>0</v>
       </c>
       <c r="B89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C89">
-        <f>Tareas!B89</f>
+        <f>Tareas!B88</f>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
-        <f>Tareas!A90</f>
+        <f>Tareas!A89</f>
         <v>0</v>
       </c>
       <c r="B90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C90">
-        <f>Tareas!B90</f>
+        <f>Tareas!B89</f>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
-        <f>Tareas!A91</f>
+        <f>Tareas!A90</f>
         <v>0</v>
       </c>
       <c r="B91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C91">
-        <f>Tareas!B91</f>
+        <f>Tareas!B90</f>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
-        <f>Tareas!A92</f>
+        <f>Tareas!A91</f>
         <v>0</v>
       </c>
       <c r="B92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C92">
-        <f>Tareas!B92</f>
+        <f>Tareas!B91</f>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
-        <f>Tareas!A93</f>
+        <f>Tareas!A92</f>
         <v>0</v>
       </c>
       <c r="B93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C93">
-        <f>Tareas!B93</f>
+        <f>Tareas!B92</f>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
-        <f>Tareas!A94</f>
+        <f>Tareas!A93</f>
         <v>0</v>
       </c>
       <c r="B94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C94">
-        <f>Tareas!B94</f>
+        <f>Tareas!B93</f>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
-        <f>Tareas!A95</f>
+        <f>Tareas!A94</f>
         <v>0</v>
       </c>
       <c r="B95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C95">
-        <f>Tareas!B95</f>
+        <f>Tareas!B94</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
-        <f>Tareas!A96</f>
+        <f>Tareas!A95</f>
         <v>0</v>
       </c>
       <c r="B96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C96">
-        <f>Tareas!B96</f>
+        <f>Tareas!B95</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
-        <f>Tareas!A97</f>
+        <f>Tareas!A96</f>
         <v>0</v>
       </c>
       <c r="B97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C97">
-        <f>Tareas!B97</f>
+        <f>Tareas!B96</f>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
-        <f>Tareas!A98</f>
+        <f>Tareas!A97</f>
         <v>0</v>
       </c>
       <c r="B98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C98">
-        <f>Tareas!B98</f>
+        <f>Tareas!B97</f>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
-        <f>Tareas!A99</f>
+        <f>Tareas!A98</f>
         <v>0</v>
       </c>
       <c r="B99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C99">
-        <f>Tareas!B99</f>
+        <f>Tareas!B98</f>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
-        <f>Tareas!A100</f>
+        <f>Tareas!A99</f>
         <v>0</v>
       </c>
       <c r="B100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C100">
-        <f>Tareas!B100</f>
+        <f>Tareas!B99</f>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
-        <f>Tareas!A101</f>
+        <f>Tareas!A100</f>
         <v>0</v>
       </c>
       <c r="B101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C101">
-        <f>Tareas!B101</f>
+        <f>Tareas!B100</f>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
-        <f>Tareas!A102</f>
+        <f>Tareas!A101</f>
         <v>0</v>
       </c>
       <c r="B102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C102">
-        <f>Tareas!B102</f>
+        <f>Tareas!B101</f>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
-        <f>Tareas!A103</f>
+        <f>Tareas!A102</f>
         <v>0</v>
       </c>
       <c r="B103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C103">
-        <f>Tareas!B103</f>
+        <f>Tareas!B102</f>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
-        <f>Tareas!A104</f>
+        <f>Tareas!A103</f>
         <v>0</v>
       </c>
       <c r="B104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C104">
-        <f>Tareas!B104</f>
+        <f>Tareas!B103</f>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105">
-        <f>Tareas!A105</f>
+        <f>Tareas!A104</f>
         <v>0</v>
       </c>
       <c r="B105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C105">
-        <f>Tareas!B105</f>
+        <f>Tareas!B104</f>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106">
-        <f>Tareas!A106</f>
+        <f>Tareas!A105</f>
         <v>0</v>
       </c>
       <c r="B106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C106">
-        <f>Tareas!B106</f>
+        <f>Tareas!B105</f>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107">
-        <f>Tareas!A107</f>
+        <f>Tareas!A106</f>
         <v>0</v>
       </c>
       <c r="B107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C107">
-        <f>Tareas!B107</f>
+        <f>Tareas!B106</f>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
-        <f>Tareas!A108</f>
+        <f>Tareas!A107</f>
         <v>0</v>
       </c>
       <c r="B108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C108">
-        <f>Tareas!B108</f>
+        <f>Tareas!B107</f>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
-        <f>Tareas!A109</f>
+        <f>Tareas!A108</f>
         <v>0</v>
       </c>
       <c r="B109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C109">
-        <f>Tareas!B109</f>
+        <f>Tareas!B108</f>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110">
-        <f>Tareas!A110</f>
+        <f>Tareas!A109</f>
         <v>0</v>
       </c>
       <c r="B110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C110">
-        <f>Tareas!B110</f>
+        <f>Tareas!B109</f>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111">
-        <f>Tareas!A111</f>
+        <f>Tareas!A110</f>
         <v>0</v>
       </c>
       <c r="B111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C111">
-        <f>Tareas!B111</f>
+        <f>Tareas!B110</f>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112">
-        <f>Tareas!A112</f>
+        <f>Tareas!A111</f>
         <v>0</v>
       </c>
       <c r="B112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C112">
-        <f>Tareas!B112</f>
+        <f>Tareas!B111</f>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
-        <f>Tareas!A113</f>
+        <f>Tareas!A112</f>
         <v>0</v>
       </c>
       <c r="B113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C113">
-        <f>Tareas!B113</f>
+        <f>Tareas!B112</f>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114">
-        <f>Tareas!A114</f>
+        <f>Tareas!A113</f>
         <v>0</v>
       </c>
       <c r="B114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C114">
-        <f>Tareas!B114</f>
+        <f>Tareas!B113</f>
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115">
-        <f>Tareas!A115</f>
+        <f>Tareas!A114</f>
         <v>0</v>
       </c>
       <c r="B115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C115">
-        <f>Tareas!B115</f>
+        <f>Tareas!B114</f>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116">
-        <f>Tareas!A116</f>
+        <f>Tareas!A115</f>
         <v>0</v>
       </c>
       <c r="B116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C116">
-        <f>Tareas!B116</f>
+        <f>Tareas!B115</f>
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117">
-        <f>Tareas!A117</f>
+        <f>Tareas!A116</f>
         <v>0</v>
       </c>
       <c r="B117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C117">
-        <f>Tareas!B117</f>
+        <f>Tareas!B116</f>
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118">
-        <f>Tareas!A118</f>
+        <f>Tareas!A117</f>
         <v>0</v>
       </c>
       <c r="B118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C118">
-        <f>Tareas!B118</f>
+        <f>Tareas!B117</f>
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119">
-        <f>Tareas!A119</f>
+        <f>Tareas!A118</f>
         <v>0</v>
       </c>
       <c r="B119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C119">
-        <f>Tareas!B119</f>
+        <f>Tareas!B118</f>
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120">
+        <f>Tareas!A119</f>
+        <v>0</v>
+      </c>
+      <c r="B120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <f>Tareas!B119</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121">
         <f>Tareas!A120</f>
         <v>0</v>
       </c>
-      <c r="B120">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C120">
+      <c r="B121">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C121">
         <f>Tareas!B120</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:XFD1">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3463,7 +4088,7 @@
   <dimension ref="A1:S47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3596,11 +4221,11 @@
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <f>INDEX(Horas!$D$1:$GQ$1,MATCH(TRUE,INDEX((Horas!D3:GQ3&lt;&gt;0),0),0))</f>
+        <f>INDEX(Horas!$D$2:$GQ$2,MATCH(TRUE,INDEX((Horas!D4:GQ4&lt;&gt;0),0),0))</f>
         <v>43473</v>
       </c>
       <c r="G3" s="1">
-        <f>IFERROR(INDEX(Horas!$D$1:$GQ$1,MATCH(TRUE,INDEX((Horas!D3:GQ3&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
+        <f>IFERROR(INDEX(Horas!$D$2:$GQ$2,MATCH(TRUE,INDEX((Horas!D4:GQ4&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
         <v>43473</v>
       </c>
       <c r="H3">
@@ -3660,7 +4285,7 @@
         <v>43473</v>
       </c>
       <c r="G4" s="1">
-        <f>IFERROR(INDEX(Horas!$D$1:$GQ$1,MATCH(TRUE,INDEX((Horas!D4:GQ4&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
+        <f>IFERROR(INDEX(Horas!$D$2:$GQ$2,MATCH(TRUE,INDEX((Horas!D5:GQ5&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
         <v>43473</v>
       </c>
       <c r="H4">
@@ -3714,15 +4339,15 @@
         <v>44562</v>
       </c>
       <c r="G5" s="1">
-        <f>IFERROR(INDEX(Horas!$D$1:$GQ$1,MATCH(TRUE,INDEX((Horas!D5:GQ5&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
-        <v>44562</v>
+        <f>IFERROR(INDEX(Horas!$D$2:$GQ$2,MATCH(TRUE,INDEX((Horas!D6:GQ6&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
+        <v>43546</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5">
         <f>VLOOKUP(A5,Horas!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5" t="b">
         <f t="shared" si="0"/>
@@ -3765,11 +4390,11 @@
         <v>3</v>
       </c>
       <c r="F6" s="1">
-        <f>INDEX(Horas!$D$1:$GQ$1,MATCH(TRUE,INDEX((Horas!D6:GQ6&lt;&gt;0),0),0))</f>
+        <f>INDEX(Horas!$D$2:$GQ$2,MATCH(TRUE,INDEX((Horas!D7:GQ7&lt;&gt;0),0),0))</f>
         <v>43473</v>
       </c>
       <c r="G6" s="1">
-        <f>IFERROR(INDEX(Horas!$D$1:$GQ$1,MATCH(TRUE,INDEX((Horas!D6:GQ6&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
+        <f>IFERROR(INDEX(Horas!$D$2:$GQ$2,MATCH(TRUE,INDEX((Horas!D7:GQ7&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
         <v>43473</v>
       </c>
       <c r="H6">
@@ -3823,7 +4448,7 @@
         <v>44562</v>
       </c>
       <c r="G7" s="1">
-        <f>IFERROR(INDEX(Horas!$D$1:$GQ$1,MATCH(TRUE,INDEX((Horas!D7:GQ7&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
+        <f>IFERROR(INDEX(Horas!$D$2:$GQ$2,MATCH(TRUE,INDEX((Horas!D8:GQ8&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
         <v>44562</v>
       </c>
       <c r="H7">
@@ -3874,7 +4499,7 @@
         <v>124</v>
       </c>
       <c r="G8" s="1">
-        <f>IFERROR(INDEX(Horas!$D$1:$GQ$1,MATCH(TRUE,INDEX((Horas!D8:GQ8&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
+        <f>IFERROR(INDEX(Horas!$D$2:$GQ$2,MATCH(TRUE,INDEX((Horas!D9:GQ9&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
         <v>43473</v>
       </c>
       <c r="H8">
@@ -3882,7 +4507,7 @@
       </c>
       <c r="I8">
         <f>VLOOKUP(A8,Horas!A:B,2,FALSE)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J8" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -3922,7 +4547,7 @@
         <v>124</v>
       </c>
       <c r="G9" s="1">
-        <f>IFERROR(INDEX(Horas!$D$1:$GQ$1,MATCH(TRUE,INDEX((Horas!D9:GQ9&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
+        <f>IFERROR(INDEX(Horas!$D$2:$GQ$2,MATCH(TRUE,INDEX((Horas!D10:GQ10&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
         <v>43474</v>
       </c>
       <c r="H9">
@@ -3970,7 +4595,7 @@
         <v>124</v>
       </c>
       <c r="G10" s="1">
-        <f>IFERROR(INDEX(Horas!$D$1:$GQ$1,MATCH(TRUE,INDEX((Horas!D10:GQ10&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
+        <f>IFERROR(INDEX(Horas!$D$2:$GQ$2,MATCH(TRUE,INDEX((Horas!D11:GQ11&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
         <v>43474</v>
       </c>
       <c r="H10">
@@ -4021,7 +4646,7 @@
         <v>124</v>
       </c>
       <c r="G11" s="1">
-        <f>IFERROR(INDEX(Horas!$D$1:$GQ$1,MATCH(TRUE,INDEX((Horas!D11:GQ11&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
+        <f>IFERROR(INDEX(Horas!$D$2:$GQ$2,MATCH(TRUE,INDEX((Horas!D12:GQ12&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
         <v>43474</v>
       </c>
       <c r="H11">
@@ -4084,15 +4709,15 @@
         <v>44562</v>
       </c>
       <c r="G12" s="1">
-        <f>IFERROR(INDEX(Horas!$D$1:$GQ$1,MATCH(TRUE,INDEX((Horas!D12:GQ12&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
-        <v>44562</v>
+        <f>IFERROR(INDEX(Horas!$D$2:$GQ$2,MATCH(TRUE,INDEX((Horas!D13:GQ13&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
+        <v>43550</v>
       </c>
       <c r="H12">
         <v>40</v>
       </c>
       <c r="I12">
         <f>VLOOKUP(A12,Horas!A:B,2,FALSE)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J12" t="b">
         <f t="shared" si="0"/>
@@ -4147,7 +4772,7 @@
         <v>43482</v>
       </c>
       <c r="G13" s="1">
-        <f>IFERROR(INDEX(Horas!$D$1:$GQ$1,MATCH(TRUE,INDEX((Horas!D13:GQ13&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
+        <f>IFERROR(INDEX(Horas!$D$2:$GQ$2,MATCH(TRUE,INDEX((Horas!D14:GQ14&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
         <v>43481</v>
       </c>
       <c r="H13">
@@ -4179,7 +4804,7 @@
       </c>
       <c r="P13" s="1">
         <f ca="1">TODAY()</f>
-        <v>43543</v>
+        <v>43556</v>
       </c>
       <c r="Q13" t="b">
         <f ca="1">IF(AND($P$13&gt;Q12,ISODD(Q11)),VEDADERO,FALSE)</f>
@@ -4211,11 +4836,11 @@
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <f>INDEX(Horas!$D$1:$GQ$1,MATCH(TRUE,INDEX((Horas!D14:GQ14&lt;&gt;0),0),0))</f>
+        <f>INDEX(Horas!$D$2:$GQ$2,MATCH(TRUE,INDEX((Horas!D15:GQ15&lt;&gt;0),0),0))</f>
         <v>43482</v>
       </c>
       <c r="G14" s="1">
-        <f>IFERROR(INDEX(Horas!$D$1:$GQ$1,MATCH(TRUE,INDEX((Horas!D14:GQ14&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
+        <f>IFERROR(INDEX(Horas!$D$2:$GQ$2,MATCH(TRUE,INDEX((Horas!D15:GQ15&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
         <v>43482</v>
       </c>
       <c r="H14">
@@ -4263,11 +4888,11 @@
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <f>INDEX(Horas!$D$1:$GQ$1,MATCH(TRUE,INDEX((Horas!D15:GQ15&lt;&gt;0),0),0))</f>
+        <f>INDEX(Horas!$D$2:$GQ$2,MATCH(TRUE,INDEX((Horas!D16:GQ16&lt;&gt;0),0),0))</f>
         <v>43483</v>
       </c>
       <c r="G15" s="1">
-        <f>IFERROR(INDEX(Horas!$D$1:$GQ$1,MATCH(TRUE,INDEX((Horas!D15:GQ15&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
+        <f>IFERROR(INDEX(Horas!$D$2:$GQ$2,MATCH(TRUE,INDEX((Horas!D16:GQ16&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
         <v>43483</v>
       </c>
       <c r="H15">
@@ -4315,11 +4940,11 @@
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <f>INDEX(Horas!$D$1:$GQ$1,MATCH(TRUE,INDEX((Horas!D16:GQ16&lt;&gt;0),0),0))</f>
+        <f>INDEX(Horas!$D$2:$GQ$2,MATCH(TRUE,INDEX((Horas!D17:GQ17&lt;&gt;0),0),0))</f>
         <v>43483</v>
       </c>
       <c r="G16" s="1">
-        <f>IFERROR(INDEX(Horas!$D$1:$GQ$1,MATCH(TRUE,INDEX((Horas!D16:GQ16&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
+        <f>IFERROR(INDEX(Horas!$D$2:$GQ$2,MATCH(TRUE,INDEX((Horas!D17:GQ17&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
         <v>43483</v>
       </c>
       <c r="H16">
@@ -4370,7 +4995,7 @@
         <v>44562</v>
       </c>
       <c r="G17" s="1">
-        <f>IFERROR(INDEX(Horas!$D$1:$GQ$1,MATCH(TRUE,INDEX((Horas!D17:GQ17&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
+        <f>IFERROR(INDEX(Horas!$D$2:$GQ$2,MATCH(TRUE,INDEX((Horas!D18:GQ18&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
         <v>44562</v>
       </c>
       <c r="H17">
@@ -4421,7 +5046,7 @@
         <v>44562</v>
       </c>
       <c r="G18" s="1">
-        <f>IFERROR(INDEX(Horas!$D$1:$GQ$1,MATCH(TRUE,INDEX((Horas!D18:GQ18&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
+        <f>IFERROR(INDEX(Horas!$D$2:$GQ$2,MATCH(TRUE,INDEX((Horas!D19:GQ19&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
         <v>43487</v>
       </c>
       <c r="H18">
@@ -4472,7 +5097,7 @@
         <v>44562</v>
       </c>
       <c r="G19" s="1">
-        <f>IFERROR(INDEX(Horas!$D$1:$GQ$1,MATCH(TRUE,INDEX((Horas!D19:GQ19&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
+        <f>IFERROR(INDEX(Horas!$D$2:$GQ$2,MATCH(TRUE,INDEX((Horas!D20:GQ20&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
         <v>44562</v>
       </c>
       <c r="H19">
@@ -4523,7 +5148,7 @@
         <v>44562</v>
       </c>
       <c r="G20" s="1">
-        <f>IFERROR(INDEX(Horas!$D$1:$GQ$1,MATCH(TRUE,INDEX((Horas!D20:GQ20&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
+        <f>IFERROR(INDEX(Horas!$D$2:$GQ$2,MATCH(TRUE,INDEX((Horas!D21:GQ21&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
         <v>43496</v>
       </c>
       <c r="H20">
@@ -4531,7 +5156,7 @@
       </c>
       <c r="I20">
         <f>VLOOKUP(A20,Horas!A:B,2,FALSE)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J20" t="b">
         <f t="shared" ca="1" si="0"/>
@@ -4574,7 +5199,7 @@
         <v>44562</v>
       </c>
       <c r="G21" s="1">
-        <f>IFERROR(INDEX(Horas!$D$1:$GQ$1,MATCH(TRUE,INDEX((Horas!D21:GQ21&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
+        <f>IFERROR(INDEX(Horas!$D$2:$GQ$2,MATCH(TRUE,INDEX((Horas!D22:GQ22&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
         <v>44562</v>
       </c>
       <c r="H21">
@@ -4625,7 +5250,7 @@
         <v>44562</v>
       </c>
       <c r="G22" s="1">
-        <f>IFERROR(INDEX(Horas!$D$1:$GQ$1,MATCH(TRUE,INDEX((Horas!D22:GQ22&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
+        <f>IFERROR(INDEX(Horas!$D$2:$GQ$2,MATCH(TRUE,INDEX((Horas!D23:GQ23&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
         <v>44562</v>
       </c>
       <c r="H22">
@@ -4676,7 +5301,7 @@
         <v>44562</v>
       </c>
       <c r="G23" s="1">
-        <f>IFERROR(INDEX(Horas!$D$1:$GQ$1,MATCH(TRUE,INDEX((Horas!D23:GQ23&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
+        <f>IFERROR(INDEX(Horas!$D$2:$GQ$2,MATCH(TRUE,INDEX((Horas!D24:GQ24&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
         <v>44562</v>
       </c>
       <c r="H23">
@@ -4727,7 +5352,7 @@
         <v>44562</v>
       </c>
       <c r="G24" s="1">
-        <f>IFERROR(INDEX(Horas!$D$1:$GQ$1,MATCH(TRUE,INDEX((Horas!D24:GQ24&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
+        <f>IFERROR(INDEX(Horas!$D$2:$GQ$2,MATCH(TRUE,INDEX((Horas!D25:GQ25&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
         <v>44562</v>
       </c>
       <c r="H24">
@@ -4778,7 +5403,7 @@
         <v>44562</v>
       </c>
       <c r="G25" s="1">
-        <f>IFERROR(INDEX(Horas!$D$1:$GQ$1,MATCH(TRUE,INDEX((Horas!D25:GQ25&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
+        <f>IFERROR(INDEX(Horas!$D$2:$GQ$2,MATCH(TRUE,INDEX((Horas!D26:GQ26&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
         <v>44562</v>
       </c>
       <c r="H25">
@@ -4829,7 +5454,7 @@
         <v>44562</v>
       </c>
       <c r="G26" s="1">
-        <f>IFERROR(INDEX(Horas!$D$1:$GQ$1,MATCH(TRUE,INDEX((Horas!D26:GQ26&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
+        <f>IFERROR(INDEX(Horas!$D$2:$GQ$2,MATCH(TRUE,INDEX((Horas!D27:GQ27&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
         <v>44562</v>
       </c>
       <c r="H26">
@@ -4880,7 +5505,7 @@
         <v>44562</v>
       </c>
       <c r="G27" s="1">
-        <f>IFERROR(INDEX(Horas!$D$1:$GQ$1,MATCH(TRUE,INDEX((Horas!D27:GQ27&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
+        <f>IFERROR(INDEX(Horas!$D$2:$GQ$2,MATCH(TRUE,INDEX((Horas!D28:GQ28&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
         <v>44562</v>
       </c>
       <c r="H27">
@@ -4931,7 +5556,7 @@
         <v>44562</v>
       </c>
       <c r="G28" s="1">
-        <f>IFERROR(INDEX(Horas!$D$1:$GQ$1,MATCH(TRUE,INDEX((Horas!D28:GQ28&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
+        <f>IFERROR(INDEX(Horas!$D$2:$GQ$2,MATCH(TRUE,INDEX((Horas!D29:GQ29&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
         <v>44562</v>
       </c>
       <c r="H28">
@@ -4982,7 +5607,7 @@
         <v>44562</v>
       </c>
       <c r="G29" s="1">
-        <f>IFERROR(INDEX(Horas!$D$1:$GQ$1,MATCH(TRUE,INDEX((Horas!D29:GQ29&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
+        <f>IFERROR(INDEX(Horas!$D$2:$GQ$2,MATCH(TRUE,INDEX((Horas!D30:GQ30&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
         <v>44562</v>
       </c>
       <c r="H29">
@@ -5033,7 +5658,7 @@
         <v>44562</v>
       </c>
       <c r="G30" s="1">
-        <f>IFERROR(INDEX(Horas!$D$1:$GQ$1,MATCH(TRUE,INDEX((Horas!D30:GQ30&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
+        <f>IFERROR(INDEX(Horas!$D$2:$GQ$2,MATCH(TRUE,INDEX((Horas!D31:GQ31&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
         <v>44562</v>
       </c>
       <c r="H30">
@@ -5084,7 +5709,7 @@
         <v>44562</v>
       </c>
       <c r="G31" s="1">
-        <f>IFERROR(INDEX(Horas!$D$1:$GQ$1,MATCH(TRUE,INDEX((Horas!D31:GQ31&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
+        <f>IFERROR(INDEX(Horas!$D$2:$GQ$2,MATCH(TRUE,INDEX((Horas!D32:GQ32&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
         <v>44562</v>
       </c>
       <c r="H31">
@@ -5135,7 +5760,7 @@
         <v>44562</v>
       </c>
       <c r="G32" s="1">
-        <f>IFERROR(INDEX(Horas!$D$1:$GQ$1,MATCH(TRUE,INDEX((Horas!D32:GQ32&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
+        <f>IFERROR(INDEX(Horas!$D$2:$GQ$2,MATCH(TRUE,INDEX((Horas!D33:GQ33&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
         <v>44562</v>
       </c>
       <c r="H32">
@@ -5186,7 +5811,7 @@
         <v>44562</v>
       </c>
       <c r="G33" s="1">
-        <f>IFERROR(INDEX(Horas!$D$1:$GQ$1,MATCH(TRUE,INDEX((Horas!D33:GQ33&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
+        <f>IFERROR(INDEX(Horas!$D$2:$GQ$2,MATCH(TRUE,INDEX((Horas!D34:GQ34&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
         <v>44562</v>
       </c>
       <c r="H33">
@@ -5237,7 +5862,7 @@
         <v>44562</v>
       </c>
       <c r="G34" s="1">
-        <f>IFERROR(INDEX(Horas!$D$1:$GQ$1,MATCH(TRUE,INDEX((Horas!D34:GQ34&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
+        <f>IFERROR(INDEX(Horas!$D$2:$GQ$2,MATCH(TRUE,INDEX((Horas!D35:GQ35&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
         <v>44562</v>
       </c>
       <c r="H34">
@@ -5288,7 +5913,7 @@
         <v>44562</v>
       </c>
       <c r="G35" s="1">
-        <f>IFERROR(INDEX(Horas!$D$1:$GQ$1,MATCH(TRUE,INDEX((Horas!D35:GQ35&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
+        <f>IFERROR(INDEX(Horas!$D$2:$GQ$2,MATCH(TRUE,INDEX((Horas!D36:GQ36&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
         <v>44562</v>
       </c>
       <c r="H35">
@@ -5339,7 +5964,7 @@
         <v>44562</v>
       </c>
       <c r="G36" s="1">
-        <f>IFERROR(INDEX(Horas!$D$1:$GQ$1,MATCH(TRUE,INDEX((Horas!D36:GQ36&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
+        <f>IFERROR(INDEX(Horas!$D$2:$GQ$2,MATCH(TRUE,INDEX((Horas!D37:GQ37&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
         <v>44562</v>
       </c>
       <c r="H36">
@@ -5390,7 +6015,7 @@
         <v>44562</v>
       </c>
       <c r="G37" s="1">
-        <f>IFERROR(INDEX(Horas!$D$1:$GQ$1,MATCH(TRUE,INDEX((Horas!D37:GQ37&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
+        <f>IFERROR(INDEX(Horas!$D$2:$GQ$2,MATCH(TRUE,INDEX((Horas!D38:GQ38&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
         <v>44562</v>
       </c>
       <c r="H37">
@@ -5441,7 +6066,7 @@
         <v>44562</v>
       </c>
       <c r="G38" s="1">
-        <f>IFERROR(INDEX(Horas!$D$1:$GQ$1,MATCH(TRUE,INDEX((Horas!D38:GQ38&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
+        <f>IFERROR(INDEX(Horas!$D$2:$GQ$2,MATCH(TRUE,INDEX((Horas!D39:GQ39&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
         <v>44562</v>
       </c>
       <c r="H38">
@@ -5489,7 +6114,7 @@
         <v>124</v>
       </c>
       <c r="G39" s="1">
-        <f>IFERROR(INDEX(Horas!$D$1:$GQ$1,MATCH(TRUE,INDEX((Horas!D39:GQ39&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
+        <f>IFERROR(INDEX(Horas!$D$2:$GQ$2,MATCH(TRUE,INDEX((Horas!D40:GQ40&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
         <v>43535</v>
       </c>
       <c r="H39">
@@ -5497,7 +6122,7 @@
       </c>
       <c r="I39">
         <f>VLOOKUP(A39,Horas!A:B,2,FALSE)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J39" t="b">
         <f t="shared" si="0"/>
@@ -5537,7 +6162,7 @@
         <v>44562</v>
       </c>
       <c r="G40" s="1">
-        <f>IFERROR(INDEX(Horas!$D$1:$GQ$1,MATCH(TRUE,INDEX((Horas!D40:GQ40&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
+        <f>IFERROR(INDEX(Horas!$D$2:$GQ$2,MATCH(TRUE,INDEX((Horas!D41:GQ41&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
         <v>43535</v>
       </c>
       <c r="H40">
@@ -5585,7 +6210,7 @@
         <v>44562</v>
       </c>
       <c r="G41" s="1">
-        <f>IFERROR(INDEX(Horas!$D$1:$GQ$1,MATCH(TRUE,INDEX((Horas!D41:GQ41&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
+        <f>IFERROR(INDEX(Horas!$D$2:$GQ$2,MATCH(TRUE,INDEX((Horas!D42:GQ42&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
         <v>44562</v>
       </c>
       <c r="H41">
@@ -5633,7 +6258,7 @@
         <v>44562</v>
       </c>
       <c r="G42" s="1">
-        <f>IFERROR(INDEX(Horas!$D$1:$GQ$1,MATCH(TRUE,INDEX((Horas!D42:GQ42&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
+        <f>IFERROR(INDEX(Horas!$D$2:$GQ$2,MATCH(TRUE,INDEX((Horas!D43:GQ43&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
         <v>44562</v>
       </c>
       <c r="H42">
@@ -5681,7 +6306,7 @@
         <v>44562</v>
       </c>
       <c r="G43" s="1">
-        <f>IFERROR(INDEX(Horas!$D$1:$GQ$1,MATCH(TRUE,INDEX((Horas!D43:GQ43&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
+        <f>IFERROR(INDEX(Horas!$D$2:$GQ$2,MATCH(TRUE,INDEX((Horas!D44:GQ44&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
         <v>44562</v>
       </c>
       <c r="H43">
@@ -5729,7 +6354,7 @@
         <v>44562</v>
       </c>
       <c r="G44" s="1">
-        <f>IFERROR(INDEX(Horas!$D$1:$GQ$1,MATCH(TRUE,INDEX((Horas!D44:GQ44&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
+        <f>IFERROR(INDEX(Horas!$D$2:$GQ$2,MATCH(TRUE,INDEX((Horas!D45:GQ45&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
         <v>44562</v>
       </c>
       <c r="H44">
@@ -5777,7 +6402,7 @@
         <v>44562</v>
       </c>
       <c r="G45" s="1">
-        <f>IFERROR(INDEX(Horas!$D$1:$GQ$1,MATCH(TRUE,INDEX((Horas!D45:GQ45&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
+        <f>IFERROR(INDEX(Horas!$D$2:$GQ$2,MATCH(TRUE,INDEX((Horas!D46:GQ46&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
         <v>44562</v>
       </c>
       <c r="H45">
@@ -5825,7 +6450,7 @@
         <v>44562</v>
       </c>
       <c r="G46" s="1">
-        <f>IFERROR(INDEX(Horas!$D$1:$GQ$1,MATCH(TRUE,INDEX((Horas!D46:GQ46&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
+        <f>IFERROR(INDEX(Horas!$D$2:$GQ$2,MATCH(TRUE,INDEX((Horas!D47:GQ47&lt;&gt;0),0),0)),DATE(2022,1,1))</f>
         <v>44562</v>
       </c>
       <c r="H46">
@@ -5863,7 +6488,7 @@
       </c>
       <c r="I47">
         <f>SUM(I3:I46)</f>
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="J47" t="b">
         <f>NOT(ISERROR(FIND($Q$1,C47)))</f>
@@ -5879,8 +6504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5553D634-43BD-4A79-BA99-D66E4E728C1F}">
   <dimension ref="A1:HO63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R30" sqref="R30"/>
+    <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6350,287 +6975,287 @@
     </row>
     <row r="2" spans="1:223" x14ac:dyDescent="0.3">
       <c r="F2">
-        <f>MATCH(F1,Horas!1:1,0)</f>
+        <f>MATCH(F1,Horas!2:2,0)</f>
         <v>4</v>
       </c>
       <c r="G2">
-        <f>MATCH(G1,Horas!1:1,0)</f>
+        <f>MATCH(G1,Horas!2:2,0)</f>
         <v>5</v>
       </c>
       <c r="H2">
-        <f>MATCH(H1,Horas!1:1,0)</f>
+        <f>MATCH(H1,Horas!2:2,0)</f>
         <v>6</v>
       </c>
       <c r="I2">
-        <f>MATCH(I1,Horas!1:1,0)</f>
+        <f>MATCH(I1,Horas!2:2,0)</f>
         <v>7</v>
       </c>
       <c r="J2">
-        <f>MATCH(J1,Horas!1:1,0)</f>
+        <f>MATCH(J1,Horas!2:2,0)</f>
         <v>8</v>
       </c>
       <c r="K2">
-        <f>MATCH(K1,Horas!1:1,0)</f>
+        <f>MATCH(K1,Horas!2:2,0)</f>
         <v>9</v>
       </c>
       <c r="L2">
-        <f>MATCH(L1,Horas!1:1,0)</f>
+        <f>MATCH(L1,Horas!2:2,0)</f>
         <v>10</v>
       </c>
       <c r="M2">
-        <f>MATCH(M1,Horas!1:1,0)</f>
+        <f>MATCH(M1,Horas!2:2,0)</f>
         <v>11</v>
       </c>
       <c r="N2">
-        <f>MATCH(N1,Horas!1:1,0)</f>
+        <f>MATCH(N1,Horas!2:2,0)</f>
         <v>12</v>
       </c>
       <c r="O2">
-        <f>MATCH(O1,Horas!1:1,0)</f>
+        <f>MATCH(O1,Horas!2:2,0)</f>
         <v>13</v>
       </c>
       <c r="P2">
-        <f>MATCH(P1,Horas!1:1,0)</f>
+        <f>MATCH(P1,Horas!2:2,0)</f>
         <v>14</v>
       </c>
       <c r="Q2">
-        <f>MATCH(Q1,Horas!1:1,0)</f>
+        <f>MATCH(Q1,Horas!2:2,0)</f>
         <v>15</v>
       </c>
       <c r="R2">
-        <f>MATCH(R1,Horas!1:1,0)</f>
+        <f>MATCH(R1,Horas!2:2,0)</f>
         <v>16</v>
       </c>
       <c r="S2">
-        <f>MATCH(S1,Horas!1:1,0)</f>
+        <f>MATCH(S1,Horas!2:2,0)</f>
         <v>17</v>
       </c>
       <c r="T2">
-        <f>MATCH(T1,Horas!1:1,0)</f>
+        <f>MATCH(T1,Horas!2:2,0)</f>
         <v>18</v>
       </c>
       <c r="U2">
-        <f>MATCH(U1,Horas!1:1,0)</f>
+        <f>MATCH(U1,Horas!2:2,0)</f>
         <v>19</v>
       </c>
       <c r="V2">
-        <f>MATCH(V1,Horas!1:1,0)</f>
+        <f>MATCH(V1,Horas!2:2,0)</f>
         <v>20</v>
       </c>
       <c r="W2">
-        <f>MATCH(W1,Horas!1:1,0)</f>
+        <f>MATCH(W1,Horas!2:2,0)</f>
         <v>21</v>
       </c>
       <c r="X2">
-        <f>MATCH(X1,Horas!1:1,0)</f>
+        <f>MATCH(X1,Horas!2:2,0)</f>
         <v>22</v>
       </c>
       <c r="Y2">
-        <f>MATCH(Y1,Horas!1:1,0)</f>
+        <f>MATCH(Y1,Horas!2:2,0)</f>
         <v>23</v>
       </c>
       <c r="Z2">
-        <f>MATCH(Z1,Horas!1:1,0)</f>
+        <f>MATCH(Z1,Horas!2:2,0)</f>
         <v>24</v>
       </c>
       <c r="AA2">
-        <f>MATCH(AA1,Horas!1:1,0)</f>
+        <f>MATCH(AA1,Horas!2:2,0)</f>
         <v>25</v>
       </c>
       <c r="AB2">
-        <f>MATCH(AB1,Horas!1:1,0)</f>
+        <f>MATCH(AB1,Horas!2:2,0)</f>
         <v>26</v>
       </c>
       <c r="AC2">
-        <f>MATCH(AC1,Horas!1:1,0)</f>
+        <f>MATCH(AC1,Horas!2:2,0)</f>
         <v>27</v>
       </c>
       <c r="AD2">
-        <f>MATCH(AD1,Horas!1:1,0)</f>
+        <f>MATCH(AD1,Horas!2:2,0)</f>
         <v>28</v>
       </c>
       <c r="AE2">
-        <f>MATCH(AE1,Horas!1:1,0)</f>
+        <f>MATCH(AE1,Horas!2:2,0)</f>
         <v>29</v>
       </c>
       <c r="AF2">
-        <f>MATCH(AF1,Horas!1:1,0)</f>
+        <f>MATCH(AF1,Horas!2:2,0)</f>
         <v>30</v>
       </c>
       <c r="AG2">
-        <f>MATCH(AG1,Horas!1:1,0)</f>
+        <f>MATCH(AG1,Horas!2:2,0)</f>
         <v>31</v>
       </c>
       <c r="AH2">
-        <f>MATCH(AH1,Horas!1:1,0)</f>
+        <f>MATCH(AH1,Horas!2:2,0)</f>
         <v>32</v>
       </c>
       <c r="AI2">
-        <f>MATCH(AI1,Horas!1:1,0)</f>
+        <f>MATCH(AI1,Horas!2:2,0)</f>
         <v>33</v>
       </c>
       <c r="AJ2">
-        <f>MATCH(AJ1,Horas!1:1,0)</f>
+        <f>MATCH(AJ1,Horas!2:2,0)</f>
         <v>34</v>
       </c>
       <c r="AK2">
-        <f>MATCH(AK1,Horas!1:1,0)</f>
+        <f>MATCH(AK1,Horas!2:2,0)</f>
         <v>35</v>
       </c>
       <c r="AL2">
-        <f>MATCH(AL1,Horas!1:1,0)</f>
+        <f>MATCH(AL1,Horas!2:2,0)</f>
         <v>36</v>
       </c>
       <c r="AM2">
-        <f>MATCH(AM1,Horas!1:1,0)</f>
+        <f>MATCH(AM1,Horas!2:2,0)</f>
         <v>37</v>
       </c>
       <c r="AN2">
-        <f>MATCH(AN1,Horas!1:1,0)</f>
+        <f>MATCH(AN1,Horas!2:2,0)</f>
         <v>38</v>
       </c>
       <c r="AO2">
-        <f>MATCH(AO1,Horas!1:1,0)</f>
+        <f>MATCH(AO1,Horas!2:2,0)</f>
         <v>39</v>
       </c>
       <c r="AP2">
-        <f>MATCH(AP1,Horas!1:1,0)</f>
+        <f>MATCH(AP1,Horas!2:2,0)</f>
         <v>40</v>
       </c>
       <c r="AQ2">
-        <f>MATCH(AQ1,Horas!1:1,0)</f>
+        <f>MATCH(AQ1,Horas!2:2,0)</f>
         <v>41</v>
       </c>
       <c r="AR2">
-        <f>MATCH(AR1,Horas!1:1,0)</f>
+        <f>MATCH(AR1,Horas!2:2,0)</f>
         <v>42</v>
       </c>
       <c r="AS2">
-        <f>MATCH(AS1,Horas!1:1,0)</f>
+        <f>MATCH(AS1,Horas!2:2,0)</f>
         <v>43</v>
       </c>
       <c r="AT2">
-        <f>MATCH(AT1,Horas!1:1,0)</f>
+        <f>MATCH(AT1,Horas!2:2,0)</f>
         <v>44</v>
       </c>
       <c r="AU2">
-        <f>MATCH(AU1,Horas!1:1,0)</f>
+        <f>MATCH(AU1,Horas!2:2,0)</f>
         <v>45</v>
       </c>
       <c r="AV2">
-        <f>MATCH(AV1,Horas!1:1,0)</f>
+        <f>MATCH(AV1,Horas!2:2,0)</f>
         <v>46</v>
       </c>
       <c r="AW2">
-        <f>MATCH(AW1,Horas!1:1,0)</f>
+        <f>MATCH(AW1,Horas!2:2,0)</f>
         <v>47</v>
       </c>
       <c r="AX2">
-        <f>MATCH(AX1,Horas!1:1,0)</f>
+        <f>MATCH(AX1,Horas!2:2,0)</f>
         <v>48</v>
       </c>
       <c r="AY2">
-        <f>MATCH(AY1,Horas!1:1,0)</f>
+        <f>MATCH(AY1,Horas!2:2,0)</f>
         <v>49</v>
       </c>
       <c r="AZ2">
-        <f>MATCH(AZ1,Horas!1:1,0)</f>
+        <f>MATCH(AZ1,Horas!2:2,0)</f>
         <v>50</v>
       </c>
       <c r="BA2">
-        <f>MATCH(BA1,Horas!1:1,0)</f>
+        <f>MATCH(BA1,Horas!2:2,0)</f>
         <v>51</v>
       </c>
       <c r="BB2">
-        <f>MATCH(BB1,Horas!1:1,0)</f>
+        <f>MATCH(BB1,Horas!2:2,0)</f>
         <v>52</v>
       </c>
       <c r="BC2">
-        <f>MATCH(BC1,Horas!1:1,0)</f>
+        <f>MATCH(BC1,Horas!2:2,0)</f>
         <v>53</v>
       </c>
       <c r="BD2">
-        <f>MATCH(BD1,Horas!1:1,0)</f>
+        <f>MATCH(BD1,Horas!2:2,0)</f>
         <v>54</v>
       </c>
       <c r="BE2">
-        <f>MATCH(BE1,Horas!1:1,0)</f>
+        <f>MATCH(BE1,Horas!2:2,0)</f>
         <v>55</v>
       </c>
       <c r="BF2">
-        <f>MATCH(BF1,Horas!1:1,0)</f>
+        <f>MATCH(BF1,Horas!2:2,0)</f>
         <v>56</v>
       </c>
       <c r="BG2">
-        <f>MATCH(BG1,Horas!1:1,0)</f>
+        <f>MATCH(BG1,Horas!2:2,0)</f>
         <v>57</v>
       </c>
       <c r="BH2">
-        <f>MATCH(BH1,Horas!1:1,0)</f>
+        <f>MATCH(BH1,Horas!2:2,0)</f>
         <v>58</v>
       </c>
       <c r="BI2">
-        <f>MATCH(BI1,Horas!1:1,0)</f>
+        <f>MATCH(BI1,Horas!2:2,0)</f>
         <v>59</v>
       </c>
       <c r="BJ2">
-        <f>MATCH(BJ1,Horas!1:1,0)</f>
+        <f>MATCH(BJ1,Horas!2:2,0)</f>
         <v>60</v>
       </c>
       <c r="BK2">
-        <f>MATCH(BK1,Horas!1:1,0)</f>
+        <f>MATCH(BK1,Horas!2:2,0)</f>
         <v>61</v>
       </c>
       <c r="BL2">
-        <f>MATCH(BL1,Horas!1:1,0)</f>
+        <f>MATCH(BL1,Horas!2:2,0)</f>
         <v>62</v>
       </c>
       <c r="BM2">
-        <f>MATCH(BM1,Horas!1:1,0)</f>
+        <f>MATCH(BM1,Horas!2:2,0)</f>
         <v>63</v>
       </c>
       <c r="BN2">
-        <f>MATCH(BN1,Horas!1:1,0)</f>
+        <f>MATCH(BN1,Horas!2:2,0)</f>
         <v>64</v>
       </c>
       <c r="BO2">
-        <f>MATCH(BO1,Horas!1:1,0)</f>
+        <f>MATCH(BO1,Horas!2:2,0)</f>
         <v>65</v>
       </c>
       <c r="BP2">
-        <f>MATCH(BP1,Horas!1:1,0)</f>
+        <f>MATCH(BP1,Horas!2:2,0)</f>
         <v>66</v>
       </c>
       <c r="BQ2">
-        <f>MATCH(BQ1,Horas!1:1,0)</f>
+        <f>MATCH(BQ1,Horas!2:2,0)</f>
         <v>67</v>
       </c>
       <c r="BR2">
-        <f>MATCH(BR1,Horas!1:1,0)</f>
+        <f>MATCH(BR1,Horas!2:2,0)</f>
         <v>68</v>
       </c>
       <c r="BS2">
-        <f>MATCH(BS1,Horas!1:1,0)</f>
+        <f>MATCH(BS1,Horas!2:2,0)</f>
         <v>69</v>
       </c>
       <c r="BT2">
-        <f>MATCH(BT1,Horas!1:1,0)</f>
+        <f>MATCH(BT1,Horas!2:2,0)</f>
         <v>70</v>
       </c>
       <c r="BU2">
-        <f>MATCH(BU1,Horas!1:1,0)</f>
+        <f>MATCH(BU1,Horas!2:2,0)</f>
         <v>71</v>
       </c>
       <c r="BV2">
-        <f>MATCH(BV1,Horas!1:1,0)</f>
+        <f>MATCH(BV1,Horas!2:2,0)</f>
         <v>72</v>
       </c>
       <c r="BW2">
-        <f>MATCH(BW1,Horas!1:1,0)</f>
+        <f>MATCH(BW1,Horas!2:2,0)</f>
         <v>73</v>
       </c>
       <c r="BX2">
-        <f>MATCH(BX1,Horas!1:1,0)</f>
+        <f>MATCH(BX1,Horas!2:2,0)</f>
         <v>74</v>
       </c>
       <c r="BY2" s="1"/>
@@ -9959,7 +10584,7 @@
       </c>
       <c r="D10">
         <f>MATCH(A10,Horas!A:A,0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" t="str">
         <f>Tareas!B3</f>
@@ -10265,7 +10890,7 @@
       </c>
       <c r="D11">
         <f>MATCH(A11,Horas!A:A,0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11" t="str">
         <f>Tareas!B4</f>
@@ -10563,7 +11188,7 @@
       </c>
       <c r="B12" s="1">
         <f>INDEX(Tareas!G:G,MATCH(A12,Tareas!A:A,0))</f>
-        <v>44562</v>
+        <v>43546</v>
       </c>
       <c r="C12" s="1">
         <f>INDEX(Tareas!F:F,MATCH(A12,Tareas!A:A,0))</f>
@@ -10571,7 +11196,7 @@
       </c>
       <c r="D12">
         <f>MATCH(A12,Horas!A:A,0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E12" t="str">
         <f>Tareas!B5</f>
@@ -10877,7 +11502,7 @@
       </c>
       <c r="D13">
         <f>MATCH(A13,Horas!A:A,0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E13" t="str">
         <f>Tareas!B6</f>
@@ -11183,7 +11808,7 @@
       </c>
       <c r="D14">
         <f>MATCH(A14,Horas!A:A,0)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E14" t="str">
         <f>Tareas!B7</f>
@@ -11489,7 +12114,7 @@
       </c>
       <c r="D15">
         <f>MATCH(A15,Horas!A:A,0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E15" t="str">
         <f>Tareas!B8</f>
@@ -11795,7 +12420,7 @@
       </c>
       <c r="D16">
         <f>MATCH(A16,Horas!A:A,0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="str">
         <f>Tareas!B9</f>
@@ -12101,7 +12726,7 @@
       </c>
       <c r="D17">
         <f>MATCH(A17,Horas!A:A,0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="str">
         <f>Tareas!B10</f>
@@ -12407,7 +13032,7 @@
       </c>
       <c r="D18">
         <f>MATCH(A18,Horas!A:A,0)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E18" t="str">
         <f>Tareas!B11</f>
@@ -12705,7 +13330,7 @@
       </c>
       <c r="B19" s="1">
         <f>INDEX(Tareas!G:G,MATCH(A19,Tareas!A:A,0))</f>
-        <v>44562</v>
+        <v>43550</v>
       </c>
       <c r="C19" s="1">
         <f>INDEX(Tareas!F:F,MATCH(A19,Tareas!A:A,0))</f>
@@ -12713,7 +13338,7 @@
       </c>
       <c r="D19">
         <f>MATCH(A19,Horas!A:A,0)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E19" t="str">
         <f>Tareas!B12</f>
@@ -13019,7 +13644,7 @@
       </c>
       <c r="D20">
         <f>MATCH(A20,Horas!A:A,0)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E20" t="str">
         <f>Tareas!B13</f>
@@ -13325,7 +13950,7 @@
       </c>
       <c r="D21">
         <f>MATCH(A21,Horas!A:A,0)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E21" t="str">
         <f>Tareas!B14</f>
@@ -13631,7 +14256,7 @@
       </c>
       <c r="D22">
         <f>MATCH(A22,Horas!A:A,0)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E22" t="str">
         <f>Tareas!B15</f>
@@ -13937,7 +14562,7 @@
       </c>
       <c r="D23">
         <f>MATCH(A23,Horas!A:A,0)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E23" t="str">
         <f>Tareas!B16</f>
@@ -14243,7 +14868,7 @@
       </c>
       <c r="D24">
         <f>MATCH(A24,Horas!A:A,0)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E24" t="str">
         <f>Tareas!B17</f>
@@ -14549,7 +15174,7 @@
       </c>
       <c r="D25">
         <f>MATCH(A25,Horas!A:A,0)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E25" t="str">
         <f>Tareas!B18</f>
@@ -14855,7 +15480,7 @@
       </c>
       <c r="D26">
         <f>MATCH(A26,Horas!A:A,0)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E26" t="str">
         <f>Tareas!B19</f>
@@ -15161,7 +15786,7 @@
       </c>
       <c r="D27">
         <f>MATCH(A27,Horas!A:A,0)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27" t="str">
         <f>Tareas!B20</f>
@@ -15467,7 +16092,7 @@
       </c>
       <c r="D28">
         <f>MATCH(A28,Horas!A:A,0)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28" t="str">
         <f>Tareas!B21</f>
@@ -15773,7 +16398,7 @@
       </c>
       <c r="D29">
         <f>MATCH(A29,Horas!A:A,0)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29" t="str">
         <f>Tareas!B22</f>
@@ -16079,7 +16704,7 @@
       </c>
       <c r="D30">
         <f>MATCH(A30,Horas!A:A,0)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30" t="str">
         <f>Tareas!B23</f>
@@ -16385,7 +17010,7 @@
       </c>
       <c r="D31">
         <f>MATCH(A31,Horas!A:A,0)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E31" t="str">
         <f>Tareas!B24</f>
@@ -16691,7 +17316,7 @@
       </c>
       <c r="D32">
         <f>MATCH(A32,Horas!A:A,0)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E32" t="str">
         <f>Tareas!B25</f>
@@ -16997,7 +17622,7 @@
       </c>
       <c r="D33">
         <f>MATCH(A33,Horas!A:A,0)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E33" t="str">
         <f>Tareas!B26</f>
@@ -17303,7 +17928,7 @@
       </c>
       <c r="D34">
         <f>MATCH(A34,Horas!A:A,0)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E34" t="str">
         <f>Tareas!B27</f>
@@ -17609,7 +18234,7 @@
       </c>
       <c r="D35">
         <f>MATCH(A35,Horas!A:A,0)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E35" t="str">
         <f>Tareas!B28</f>
@@ -17915,7 +18540,7 @@
       </c>
       <c r="D36">
         <f>MATCH(A36,Horas!A:A,0)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E36" t="str">
         <f>Tareas!B29</f>
@@ -18221,7 +18846,7 @@
       </c>
       <c r="D37">
         <f>MATCH(A37,Horas!A:A,0)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E37" t="str">
         <f>Tareas!B30</f>
@@ -18527,7 +19152,7 @@
       </c>
       <c r="D38">
         <f>MATCH(A38,Horas!A:A,0)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E38" t="str">
         <f>Tareas!B31</f>
@@ -18833,7 +19458,7 @@
       </c>
       <c r="D39">
         <f>MATCH(A39,Horas!A:A,0)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E39" t="str">
         <f>Tareas!B32</f>
@@ -19139,7 +19764,7 @@
       </c>
       <c r="D40">
         <f>MATCH(A40,Horas!A:A,0)</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E40" t="str">
         <f>Tareas!B33</f>
@@ -19445,7 +20070,7 @@
       </c>
       <c r="D41">
         <f>MATCH(A41,Horas!A:A,0)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E41" t="str">
         <f>Tareas!B34</f>
@@ -19751,7 +20376,7 @@
       </c>
       <c r="D42">
         <f>MATCH(A42,Horas!A:A,0)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E42" t="str">
         <f>Tareas!B35</f>
@@ -20057,7 +20682,7 @@
       </c>
       <c r="D43">
         <f>MATCH(A43,Horas!A:A,0)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E43" t="str">
         <f>Tareas!B36</f>
@@ -20363,7 +20988,7 @@
       </c>
       <c r="D44">
         <f>MATCH(A44,Horas!A:A,0)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E44" t="str">
         <f>Tareas!B37</f>
@@ -20669,7 +21294,7 @@
       </c>
       <c r="D45">
         <f>MATCH(A45,Horas!A:A,0)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E45" t="str">
         <f>Tareas!B38</f>
@@ -20975,7 +21600,7 @@
       </c>
       <c r="D46">
         <f>MATCH(A46,Horas!A:A,0)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E46" t="str">
         <f>Tareas!B39</f>
@@ -21281,7 +21906,7 @@
       </c>
       <c r="D47">
         <f>MATCH(A47,Horas!A:A,0)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E47" t="str">
         <f>Tareas!B40</f>
@@ -21587,7 +22212,7 @@
       </c>
       <c r="D48">
         <f>MATCH(A48,Horas!A:A,0)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E48" t="str">
         <f>Tareas!B41</f>
@@ -21893,7 +22518,7 @@
       </c>
       <c r="D49">
         <f>MATCH(A49,Horas!A:A,0)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E49" t="str">
         <f>Tareas!B42</f>
@@ -22199,7 +22824,7 @@
       </c>
       <c r="D50">
         <f>MATCH(A50,Horas!A:A,0)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E50" t="str">
         <f>Tareas!B43</f>
@@ -22505,7 +23130,7 @@
       </c>
       <c r="D51">
         <f>MATCH(A51,Horas!A:A,0)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E51" t="str">
         <f>Tareas!B44</f>
@@ -22811,7 +23436,7 @@
       </c>
       <c r="D52">
         <f>MATCH(A52,Horas!A:A,0)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E52" t="str">
         <f>Tareas!B45</f>
@@ -23117,7 +23742,7 @@
       </c>
       <c r="D53">
         <f>MATCH(A53,Horas!A:A,0)</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E53" t="str">
         <f>Tareas!B46</f>
@@ -23423,7 +24048,7 @@
       </c>
       <c r="D54">
         <f>MATCH(A54,Horas!A:A,0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E54">
         <f>Tareas!B47</f>
@@ -23729,7 +24354,7 @@
       </c>
       <c r="D55">
         <f>MATCH(A55,Horas!A:A,0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E55">
         <f>Tareas!B48</f>
@@ -24035,7 +24660,7 @@
       </c>
       <c r="D56">
         <f>MATCH(A56,Horas!A:A,0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E56">
         <f>Tareas!B49</f>
@@ -24341,7 +24966,7 @@
       </c>
       <c r="D57">
         <f>MATCH(A57,Horas!A:A,0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E57">
         <f>Tareas!B50</f>
@@ -24647,7 +25272,7 @@
       </c>
       <c r="D58">
         <f>MATCH(A58,Horas!A:A,0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E58">
         <f>Tareas!B51</f>
@@ -24953,7 +25578,7 @@
       </c>
       <c r="D59">
         <f>MATCH(A59,Horas!A:A,0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E59">
         <f>Tareas!B52</f>
@@ -25259,7 +25884,7 @@
       </c>
       <c r="D60">
         <f>MATCH(A60,Horas!A:A,0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E60">
         <f>Tareas!B53</f>
@@ -25565,7 +26190,7 @@
       </c>
       <c r="D61">
         <f>MATCH(A61,Horas!A:A,0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E61">
         <f>Tareas!B54</f>
@@ -25871,7 +26496,7 @@
       </c>
       <c r="D62">
         <f>MATCH(A62,Horas!A:A,0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E62">
         <f>Tareas!B55</f>
@@ -26177,7 +26802,7 @@
       </c>
       <c r="D63">
         <f>MATCH(A63,Horas!A:A,0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E63">
         <f>Tareas!B56</f>
@@ -26483,14 +27108,20 @@
     <mergeCell ref="BI4:BO4"/>
   </mergeCells>
   <conditionalFormatting sqref="A7:XFD9">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:BX63">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -26498,12 +27129,6 @@
         <color rgb="FF92D050"/>
         <color rgb="FF00B050"/>
       </colorScale>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
-      <formula>-1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26516,7 +27141,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
